--- a/flag/AQB_classification/species_list_10071623_NJMg.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/Downloads/iqtree_genomes_wLitLinks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8FE4916E-1721-934B-8C7F-60B998289109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55D13A-5FB2-0547-8E91-4EFA4E52A7E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="500" windowWidth="35160" windowHeight="20740"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5361" uniqueCount="2926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="2926">
   <si>
     <t>Download script?</t>
   </si>
@@ -5002,15 +5002,9 @@
     <t>SL.3.17</t>
   </si>
   <si>
-    <t>PRJEB3868_Verrucomicrobium_sp_CAIZXV01</t>
-  </si>
-  <si>
     <t>GCF_903937045.1</t>
   </si>
   <si>
-    <t>PRJEB38681_Verrucomicrobium_sp_CAISZB01</t>
-  </si>
-  <si>
     <t xml:space="preserve">GCF_903889845.1 </t>
   </si>
   <si>
@@ -5596,9 +5590,6 @@
     <t>USDA 6</t>
   </si>
   <si>
-    <t>Bradyrhizobium japonicum 1</t>
-  </si>
-  <si>
     <t>GCA_000011705.1</t>
   </si>
   <si>
@@ -5776,9 +5767,6 @@
     <t>ATCC 12472</t>
   </si>
   <si>
-    <t>Chromobacterium violaceum 1</t>
-  </si>
-  <si>
     <t>GCA_000007625.1</t>
   </si>
   <si>
@@ -5866,9 +5854,6 @@
     <t>duplicate of U00096.3?</t>
   </si>
   <si>
-    <t>Escherichia coli 042 1</t>
-  </si>
-  <si>
     <t>NJM_2023-07-19</t>
   </si>
   <si>
@@ -6154,9 +6139,6 @@
     <t>ASM1302v1</t>
   </si>
   <si>
-    <t>Alphaproteobacteria;</t>
-  </si>
-  <si>
     <t>Caulobacterales;</t>
   </si>
   <si>
@@ -6304,9 +6286,6 @@
     <t>ASM1486v1</t>
   </si>
   <si>
-    <t>Magnetococcia</t>
-  </si>
-  <si>
     <t>Magnetococcales</t>
   </si>
   <si>
@@ -6691,9 +6670,6 @@
     <t>ATCC BAA-899</t>
   </si>
   <si>
-    <t>Oceanimonas smirnovii 1</t>
-  </si>
-  <si>
     <t>GCA_000011245.1</t>
   </si>
   <si>
@@ -6838,9 +6814,6 @@
     <t>mandapamensis svers.1.1</t>
   </si>
   <si>
-    <t>Photobacterium leiognathi 1</t>
-  </si>
-  <si>
     <t>GCA_002631085.2</t>
   </si>
   <si>
@@ -6868,9 +6841,6 @@
     <t>SS9</t>
   </si>
   <si>
-    <t>Photobacterium profundum 1</t>
-  </si>
-  <si>
     <t>GCA_000798635.2</t>
   </si>
   <si>
@@ -6928,9 +6898,6 @@
     <t>MS-17-188</t>
   </si>
   <si>
-    <t>Plesiomonas shigelloides (1)</t>
-  </si>
-  <si>
     <t>GCA_000238355.2</t>
   </si>
   <si>
@@ -7192,9 +7159,6 @@
     <t>HAW-EB3</t>
   </si>
   <si>
-    <t>Shewanella sediminis 1</t>
-  </si>
-  <si>
     <t>GCA_000007405.1</t>
   </si>
   <si>
@@ -7414,9 +7378,6 @@
     <t>ATCC 25259</t>
   </si>
   <si>
-    <t>Thiobacillus denitrificans 1</t>
-  </si>
-  <si>
     <t>GCA_004786015.1</t>
   </si>
   <si>
@@ -8798,12 +8759,51 @@
   </si>
   <si>
     <t>ASM2100v1</t>
+  </si>
+  <si>
+    <t>Deferribacterota</t>
+  </si>
+  <si>
+    <t>Plesiomonas shigelloides</t>
+  </si>
+  <si>
+    <t>Photobacterium profundum 1_2</t>
+  </si>
+  <si>
+    <t>Photobacterium leiognathi 1_2</t>
+  </si>
+  <si>
+    <t>Oceanimonas smirnovii 1_2</t>
+  </si>
+  <si>
+    <t>Shewanella sediminis 1_2</t>
+  </si>
+  <si>
+    <t>Thiobacillus denitrificans 1_2</t>
+  </si>
+  <si>
+    <t>Chromobacterium violaceum 1_2</t>
+  </si>
+  <si>
+    <t>Bradyrhizobium japonicum 1_2</t>
+  </si>
+  <si>
+    <t>Escherichia coli 042 1_2</t>
+  </si>
+  <si>
+    <t>PRJEB3868_Verrucomicrobium_sp</t>
+  </si>
+  <si>
+    <t>PRJEB38681_Verrucomicrobium_sp</t>
+  </si>
+  <si>
+    <t>downloaded 2023-07-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -9639,17 +9639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O156" sqref="O156"/>
+      <selection pane="bottomRight" activeCell="O391" sqref="O391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="31" max="31" width="40.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
@@ -12725,6 +12728,9 @@
       <c r="H81" t="s">
         <v>39</v>
       </c>
+      <c r="I81" t="s">
+        <v>2913</v>
+      </c>
       <c r="J81" t="s">
         <v>617</v>
       </c>
@@ -13303,6 +13309,9 @@
       <c r="H97" t="s">
         <v>186</v>
       </c>
+      <c r="I97" t="s">
+        <v>2913</v>
+      </c>
       <c r="J97" t="s">
         <v>617</v>
       </c>
@@ -13551,6 +13560,9 @@
       <c r="H104" t="s">
         <v>39</v>
       </c>
+      <c r="I104" t="s">
+        <v>2913</v>
+      </c>
       <c r="J104" t="s">
         <v>617</v>
       </c>
@@ -14491,6 +14503,9 @@
       <c r="H130" t="s">
         <v>39</v>
       </c>
+      <c r="I130" t="s">
+        <v>2913</v>
+      </c>
       <c r="J130" t="s">
         <v>617</v>
       </c>
@@ -15492,7 +15507,7 @@
         <v>1187</v>
       </c>
       <c r="F156" t="s">
-        <v>2925</v>
+        <v>2912</v>
       </c>
       <c r="I156" t="s">
         <v>51</v>
@@ -18115,10 +18130,10 @@
     </row>
     <row r="227" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D227" t="s">
         <v>1660</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1661</v>
       </c>
       <c r="E227" t="s">
         <v>1510</v>
@@ -18156,10 +18171,10 @@
     </row>
     <row r="228" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>1662</v>
+        <v>2924</v>
       </c>
       <c r="D228" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E228" t="s">
         <v>1517</v>
@@ -18197,72 +18212,72 @@
     </row>
     <row r="229" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D229" t="s">
         <v>1664</v>
       </c>
-      <c r="C229" t="s">
+      <c r="F229" t="s">
         <v>1665</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1667</v>
       </c>
       <c r="H229" t="s">
         <v>39</v>
       </c>
       <c r="I229" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J229" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K229" t="s">
         <v>1668</v>
       </c>
-      <c r="J229" t="s">
+      <c r="L229" t="s">
         <v>1669</v>
       </c>
-      <c r="K229" t="s">
+      <c r="M229" t="s">
         <v>1670</v>
       </c>
-      <c r="L229" t="s">
+      <c r="N229" t="s">
         <v>1671</v>
       </c>
-      <c r="M229" t="s">
+      <c r="O229" t="s">
         <v>1672</v>
       </c>
-      <c r="N229" t="s">
+      <c r="P229" t="s">
         <v>1673</v>
       </c>
-      <c r="O229" t="s">
+      <c r="Q229" t="s">
         <v>1674</v>
       </c>
-      <c r="P229" t="s">
+      <c r="R229" t="s">
         <v>1675</v>
       </c>
-      <c r="Q229" t="s">
+      <c r="AE229" t="s">
         <v>1676</v>
       </c>
-      <c r="R229" t="s">
+      <c r="AG229" t="s">
         <v>1677</v>
       </c>
-      <c r="AE229" t="s">
+      <c r="AH229" t="s">
         <v>1678</v>
-      </c>
-      <c r="AG229" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH229" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="230" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C230" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F230" t="s">
         <v>1681</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1683</v>
       </c>
       <c r="H230" t="s">
         <v>39</v>
@@ -18277,39 +18292,39 @@
         <v>238</v>
       </c>
       <c r="L230" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M230" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N230" t="s">
         <v>1684</v>
       </c>
-      <c r="M230" t="s">
+      <c r="O230" t="s">
         <v>1685</v>
       </c>
-      <c r="N230" t="s">
+      <c r="AE230" t="s">
         <v>1686</v>
       </c>
-      <c r="O230" t="s">
+      <c r="AG230" t="s">
         <v>1687</v>
       </c>
-      <c r="AE230" t="s">
+      <c r="AH230" t="s">
         <v>1688</v>
-      </c>
-      <c r="AG230" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AH230" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="231" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C231" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F231" t="s">
         <v>1691</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1693</v>
       </c>
       <c r="H231" t="s">
         <v>39</v>
@@ -18324,39 +18339,39 @@
         <v>238</v>
       </c>
       <c r="L231" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="M231" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N231" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O231" t="s">
         <v>1694</v>
       </c>
-      <c r="N231" t="s">
+      <c r="AE231" t="s">
         <v>1695</v>
       </c>
-      <c r="O231" t="s">
+      <c r="AG231" t="s">
         <v>1696</v>
       </c>
-      <c r="AE231" t="s">
-        <v>1697</v>
-      </c>
-      <c r="AG231" t="s">
-        <v>1698</v>
-      </c>
       <c r="AH231" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="232" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C232" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F232" t="s">
         <v>1699</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1701</v>
       </c>
       <c r="H232" t="s">
         <v>39</v>
@@ -18371,39 +18386,39 @@
         <v>238</v>
       </c>
       <c r="L232" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="M232" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="N232" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O232" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AE232" t="s">
         <v>1702</v>
       </c>
-      <c r="O232" t="s">
+      <c r="AG232" t="s">
         <v>1703</v>
       </c>
-      <c r="AE232" t="s">
-        <v>1704</v>
-      </c>
-      <c r="AG232" t="s">
-        <v>1705</v>
-      </c>
       <c r="AH232" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="233" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C233" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F233" t="s">
         <v>1706</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1708</v>
       </c>
       <c r="H233" t="s">
         <v>39</v>
@@ -18418,39 +18433,39 @@
         <v>238</v>
       </c>
       <c r="L233" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="M233" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="N233" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O233" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AE233" t="s">
         <v>1709</v>
       </c>
-      <c r="O233" t="s">
+      <c r="AG233" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AH233" t="s">
         <v>1710</v>
-      </c>
-      <c r="AE233" t="s">
-        <v>1711</v>
-      </c>
-      <c r="AG233" t="s">
-        <v>1698</v>
-      </c>
-      <c r="AH233" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="234" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C234" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F234" t="s">
         <v>1713</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1715</v>
       </c>
       <c r="H234" t="s">
         <v>39</v>
@@ -18462,33 +18477,33 @@
         <v>85</v>
       </c>
       <c r="K234" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L234" t="s">
+        <v>1715</v>
+      </c>
+      <c r="M234" t="s">
         <v>1716</v>
       </c>
-      <c r="L234" t="s">
+      <c r="N234" t="s">
         <v>1717</v>
       </c>
-      <c r="M234" t="s">
+      <c r="Q234" t="s">
         <v>1718</v>
-      </c>
-      <c r="N234" t="s">
-        <v>1719</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="235" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C235" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F235" t="s">
         <v>1721</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1723</v>
       </c>
       <c r="H235" t="s">
         <v>39</v>
@@ -18500,48 +18515,48 @@
         <v>85</v>
       </c>
       <c r="K235" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="L235" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="M235" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N235" t="s">
+        <v>1723</v>
+      </c>
+      <c r="P235" t="s">
         <v>1724</v>
       </c>
-      <c r="N235" t="s">
+      <c r="Q235" t="s">
         <v>1725</v>
       </c>
-      <c r="P235" t="s">
+      <c r="AE235" t="s">
         <v>1726</v>
       </c>
-      <c r="Q235" t="s">
+      <c r="AF235" t="s">
         <v>1727</v>
       </c>
-      <c r="AE235" t="s">
+      <c r="AG235" t="s">
         <v>1728</v>
       </c>
-      <c r="AF235" t="s">
+      <c r="AH235" t="s">
         <v>1729</v>
-      </c>
-      <c r="AG235" t="s">
-        <v>1730</v>
-      </c>
-      <c r="AH235" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="236" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C236" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F236" t="s">
         <v>1732</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1734</v>
       </c>
       <c r="H236" t="s">
         <v>39</v>
@@ -18556,39 +18571,39 @@
         <v>238</v>
       </c>
       <c r="L236" t="s">
+        <v>1733</v>
+      </c>
+      <c r="M236" t="s">
+        <v>1734</v>
+      </c>
+      <c r="N236" t="s">
         <v>1735</v>
       </c>
-      <c r="M236" t="s">
+      <c r="O236" t="s">
         <v>1736</v>
       </c>
-      <c r="N236" t="s">
+      <c r="AE236" t="s">
         <v>1737</v>
       </c>
-      <c r="O236" t="s">
-        <v>1738</v>
-      </c>
-      <c r="AE236" t="s">
-        <v>1739</v>
-      </c>
       <c r="AG236" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH236" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="237" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C237" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F237" t="s">
         <v>1740</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1742</v>
       </c>
       <c r="H237" t="s">
         <v>39</v>
@@ -18606,36 +18621,36 @@
         <v>1533</v>
       </c>
       <c r="M237" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N237" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O237" t="s">
         <v>1743</v>
       </c>
-      <c r="N237" t="s">
+      <c r="AE237" t="s">
         <v>1744</v>
       </c>
-      <c r="O237" t="s">
-        <v>1745</v>
-      </c>
-      <c r="AE237" t="s">
-        <v>1746</v>
-      </c>
       <c r="AG237" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH237" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="238" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C238" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F238" t="s">
         <v>1747</v>
-      </c>
-      <c r="D238" t="s">
-        <v>1748</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1749</v>
       </c>
       <c r="H238" t="s">
         <v>39</v>
@@ -18650,39 +18665,39 @@
         <v>238</v>
       </c>
       <c r="L238" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M238" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N238" t="s">
+        <v>1749</v>
+      </c>
+      <c r="O238" t="s">
         <v>1750</v>
       </c>
-      <c r="N238" t="s">
+      <c r="AE238" t="s">
         <v>1751</v>
       </c>
-      <c r="O238" t="s">
-        <v>1752</v>
-      </c>
-      <c r="AE238" t="s">
-        <v>1753</v>
-      </c>
       <c r="AG238" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH238" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="239" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C239" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F239" t="s">
         <v>1754</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1756</v>
       </c>
       <c r="H239" t="s">
         <v>39</v>
@@ -18697,39 +18712,39 @@
         <v>238</v>
       </c>
       <c r="L239" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M239" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N239" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O239" t="s">
         <v>1757</v>
       </c>
-      <c r="N239" t="s">
+      <c r="AE239" t="s">
         <v>1758</v>
       </c>
-      <c r="O239" t="s">
-        <v>1759</v>
-      </c>
-      <c r="AE239" t="s">
-        <v>1760</v>
-      </c>
       <c r="AG239" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH239" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="240" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C240" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F240" t="s">
         <v>1761</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1763</v>
       </c>
       <c r="H240" t="s">
         <v>39</v>
@@ -18744,39 +18759,39 @@
         <v>1161</v>
       </c>
       <c r="L240" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="M240" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="N240" t="s">
         <v>1070</v>
       </c>
       <c r="O240" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="AE240" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="AG240" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH240" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="241" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C241" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F241" t="s">
         <v>1768</v>
-      </c>
-      <c r="D241" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1770</v>
       </c>
       <c r="H241" t="s">
         <v>39</v>
@@ -18788,45 +18803,45 @@
         <v>134</v>
       </c>
       <c r="K241" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L241" t="s">
+        <v>1770</v>
+      </c>
+      <c r="M241" t="s">
         <v>1771</v>
       </c>
-      <c r="L241" t="s">
+      <c r="N241" t="s">
         <v>1772</v>
       </c>
-      <c r="M241" t="s">
+      <c r="O241" t="s">
         <v>1773</v>
       </c>
-      <c r="N241" t="s">
+      <c r="AE241" t="s">
         <v>1774</v>
       </c>
-      <c r="O241" t="s">
+      <c r="AF241" t="s">
         <v>1775</v>
       </c>
-      <c r="AE241" t="s">
+      <c r="AG241" t="s">
         <v>1776</v>
       </c>
-      <c r="AF241" t="s">
-        <v>1777</v>
-      </c>
-      <c r="AG241" t="s">
-        <v>1778</v>
-      </c>
       <c r="AH241" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="242" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C242" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F242" t="s">
         <v>1779</v>
-      </c>
-      <c r="D242" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1781</v>
       </c>
       <c r="H242" t="s">
         <v>39</v>
@@ -18838,48 +18853,48 @@
         <v>134</v>
       </c>
       <c r="K242" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L242" t="s">
+        <v>1770</v>
+      </c>
+      <c r="M242" t="s">
         <v>1771</v>
       </c>
-      <c r="L242" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1773</v>
-      </c>
       <c r="N242" t="s">
+        <v>1780</v>
+      </c>
+      <c r="O242" t="s">
+        <v>1781</v>
+      </c>
+      <c r="Q242" t="s">
         <v>1782</v>
       </c>
-      <c r="O242" t="s">
+      <c r="AE242" t="s">
         <v>1783</v>
       </c>
-      <c r="Q242" t="s">
+      <c r="AF242" t="s">
         <v>1784</v>
       </c>
-      <c r="AE242" t="s">
+      <c r="AG242" t="s">
         <v>1785</v>
       </c>
-      <c r="AF242" t="s">
-        <v>1786</v>
-      </c>
-      <c r="AG242" t="s">
-        <v>1787</v>
-      </c>
       <c r="AH242" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="243" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C243" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F243" t="s">
         <v>1788</v>
-      </c>
-      <c r="D243" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1790</v>
       </c>
       <c r="H243" t="s">
         <v>39</v>
@@ -18891,48 +18906,48 @@
         <v>134</v>
       </c>
       <c r="K243" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="L243" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="M243" t="s">
+        <v>1789</v>
+      </c>
+      <c r="N243" t="s">
+        <v>1790</v>
+      </c>
+      <c r="O243" t="s">
         <v>1791</v>
       </c>
-      <c r="N243" t="s">
+      <c r="Q243" t="s">
         <v>1792</v>
       </c>
-      <c r="O243" t="s">
+      <c r="AE243" t="s">
         <v>1793</v>
       </c>
-      <c r="Q243" t="s">
+      <c r="AF243" t="s">
         <v>1794</v>
       </c>
-      <c r="AE243" t="s">
-        <v>1795</v>
-      </c>
-      <c r="AF243" t="s">
-        <v>1796</v>
-      </c>
       <c r="AG243" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH243" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="244" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C244" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F244" t="s">
         <v>1797</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1799</v>
       </c>
       <c r="H244" t="s">
         <v>39</v>
@@ -18953,36 +18968,36 @@
         <v>137</v>
       </c>
       <c r="N244" t="s">
+        <v>1798</v>
+      </c>
+      <c r="O244" t="s">
+        <v>1799</v>
+      </c>
+      <c r="Q244" t="s">
         <v>1800</v>
       </c>
-      <c r="O244" t="s">
+      <c r="AE244" t="s">
         <v>1801</v>
       </c>
-      <c r="Q244" t="s">
-        <v>1802</v>
-      </c>
-      <c r="AE244" t="s">
-        <v>1803</v>
-      </c>
       <c r="AG244" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH244" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="245" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C245" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F245" t="s">
         <v>1804</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1806</v>
       </c>
       <c r="H245" t="s">
         <v>39</v>
@@ -18994,45 +19009,45 @@
         <v>134</v>
       </c>
       <c r="K245" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="L245" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="M245" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N245" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O245" t="s">
         <v>1807</v>
       </c>
-      <c r="N245" t="s">
+      <c r="Q245" t="s">
         <v>1808</v>
       </c>
-      <c r="O245" t="s">
+      <c r="AE245" t="s">
         <v>1809</v>
       </c>
-      <c r="Q245" t="s">
-        <v>1810</v>
-      </c>
-      <c r="AE245" t="s">
-        <v>1811</v>
-      </c>
       <c r="AG245" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH245" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="246" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C246" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F246" t="s">
         <v>1812</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1814</v>
       </c>
       <c r="H246" t="s">
         <v>39</v>
@@ -19053,33 +19068,33 @@
         <v>137</v>
       </c>
       <c r="N246" t="s">
+        <v>1813</v>
+      </c>
+      <c r="O246" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AE246" t="s">
         <v>1815</v>
       </c>
-      <c r="O246" t="s">
-        <v>1816</v>
-      </c>
-      <c r="AE246" t="s">
-        <v>1817</v>
-      </c>
       <c r="AG246" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH246" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="247" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C247" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F247" t="s">
         <v>1818</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1820</v>
       </c>
       <c r="H247" t="s">
         <v>39</v>
@@ -19100,33 +19115,33 @@
         <v>137</v>
       </c>
       <c r="N247" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="O247" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="AE247" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="AG247" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH247" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="248" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D248" t="s">
         <v>1823</v>
       </c>
-      <c r="C248" t="s">
+      <c r="F248" t="s">
         <v>1824</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1826</v>
       </c>
       <c r="H248" t="s">
         <v>39</v>
@@ -19141,39 +19156,39 @@
         <v>1170</v>
       </c>
       <c r="L248" t="s">
+        <v>1825</v>
+      </c>
+      <c r="M248" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N248" t="s">
         <v>1827</v>
       </c>
-      <c r="M248" t="s">
+      <c r="O248" t="s">
         <v>1828</v>
       </c>
-      <c r="N248" t="s">
+      <c r="AE248" t="s">
         <v>1829</v>
       </c>
-      <c r="O248" t="s">
+      <c r="AG248" t="s">
         <v>1830</v>
       </c>
-      <c r="AE248" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AG248" t="s">
-        <v>1832</v>
-      </c>
       <c r="AH248" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="249" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C249" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F249" t="s">
         <v>1833</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1835</v>
       </c>
       <c r="H249" t="s">
         <v>39</v>
@@ -19188,83 +19203,83 @@
         <v>1170</v>
       </c>
       <c r="L249" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M249" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="N249" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O249" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AE249" t="s">
         <v>1836</v>
       </c>
-      <c r="O249" t="s">
+      <c r="AH249" t="s">
         <v>1837</v>
-      </c>
-      <c r="AE249" t="s">
-        <v>1838</v>
-      </c>
-      <c r="AH249" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="250" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C250" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F250" t="s">
         <v>1840</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1842</v>
       </c>
       <c r="H250" t="s">
         <v>39</v>
       </c>
       <c r="I250" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K250" t="s">
         <v>1843</v>
       </c>
-      <c r="J250" t="s">
+      <c r="L250" t="s">
         <v>1844</v>
       </c>
-      <c r="K250" t="s">
+      <c r="M250" t="s">
         <v>1845</v>
       </c>
-      <c r="L250" t="s">
+      <c r="N250" t="s">
         <v>1846</v>
       </c>
-      <c r="M250" t="s">
+      <c r="O250" t="s">
         <v>1847</v>
       </c>
-      <c r="N250" t="s">
+      <c r="AE250" t="s">
         <v>1848</v>
       </c>
-      <c r="O250" t="s">
-        <v>1849</v>
-      </c>
-      <c r="AE250" t="s">
-        <v>1850</v>
-      </c>
       <c r="AG250" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH250" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="251" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C251" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F251" t="s">
         <v>1851</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1853</v>
       </c>
       <c r="H251" t="s">
         <v>39</v>
@@ -19276,39 +19291,39 @@
         <v>85</v>
       </c>
       <c r="K251" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="L251" t="s">
+        <v>1852</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N251" t="s">
         <v>1854</v>
       </c>
-      <c r="M251" t="s">
+      <c r="O251" t="s">
         <v>1855</v>
       </c>
-      <c r="N251" t="s">
-        <v>1856</v>
-      </c>
-      <c r="O251" t="s">
-        <v>1857</v>
-      </c>
       <c r="AE251" t="s">
-        <v>1858</v>
+        <v>2921</v>
       </c>
       <c r="AH251" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="252" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C252" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D252" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="F252" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="H252" t="s">
         <v>39</v>
@@ -19323,39 +19338,39 @@
         <v>1170</v>
       </c>
       <c r="L252" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M252" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N252" t="s">
+        <v>1860</v>
+      </c>
+      <c r="O252" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AE252" t="s">
         <v>1862</v>
       </c>
-      <c r="N252" t="s">
-        <v>1863</v>
-      </c>
-      <c r="O252" t="s">
-        <v>1864</v>
-      </c>
-      <c r="AE252" t="s">
-        <v>1865</v>
-      </c>
       <c r="AG252" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH252" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="253" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C253" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D253" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="F253" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="H253" t="s">
         <v>39</v>
@@ -19370,36 +19385,36 @@
         <v>1170</v>
       </c>
       <c r="L253" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M253" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="N253" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="O253" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="AE253" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="AH253" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="254" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C254" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D254" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="F254" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="H254" t="s">
         <v>39</v>
@@ -19414,33 +19429,33 @@
         <v>1170</v>
       </c>
       <c r="L254" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M254" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="N254" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="O254" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="P254" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="255" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C255" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D255" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="F255" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="H255" t="s">
         <v>39</v>
@@ -19458,39 +19473,39 @@
         <v>1533</v>
       </c>
       <c r="M255" t="s">
+        <v>1878</v>
+      </c>
+      <c r="N255" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O255" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P255" t="s">
         <v>1881</v>
       </c>
-      <c r="N255" t="s">
+      <c r="AE255" t="s">
         <v>1882</v>
       </c>
-      <c r="O255" t="s">
-        <v>1883</v>
-      </c>
-      <c r="P255" t="s">
-        <v>1884</v>
-      </c>
-      <c r="AE255" t="s">
-        <v>1885</v>
-      </c>
       <c r="AG255" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH255" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="256" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C256" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="D256" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F256" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="H256" t="s">
         <v>39</v>
@@ -19502,45 +19517,45 @@
         <v>85</v>
       </c>
       <c r="K256" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L256" t="s">
+        <v>1887</v>
+      </c>
+      <c r="M256" t="s">
+        <v>1888</v>
+      </c>
+      <c r="N256" t="s">
         <v>1889</v>
       </c>
-      <c r="L256" t="s">
+      <c r="O256" t="s">
         <v>1890</v>
       </c>
-      <c r="M256" t="s">
+      <c r="P256" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE256" t="s">
         <v>1891</v>
       </c>
-      <c r="N256" t="s">
+      <c r="AG256" t="s">
         <v>1892</v>
       </c>
-      <c r="O256" t="s">
-        <v>1893</v>
-      </c>
-      <c r="P256" t="s">
-        <v>1884</v>
-      </c>
-      <c r="AE256" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AG256" t="s">
-        <v>1895</v>
-      </c>
       <c r="AH256" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="257" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C257" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D257" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="F257" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="H257" t="s">
         <v>39</v>
@@ -19555,39 +19570,39 @@
         <v>238</v>
       </c>
       <c r="L257" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M257" t="s">
+        <v>1896</v>
+      </c>
+      <c r="N257" t="s">
+        <v>1897</v>
+      </c>
+      <c r="O257" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AE257" t="s">
         <v>1899</v>
       </c>
-      <c r="N257" t="s">
-        <v>1900</v>
-      </c>
-      <c r="O257" t="s">
-        <v>1901</v>
-      </c>
-      <c r="AE257" t="s">
-        <v>1902</v>
-      </c>
       <c r="AG257" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH257" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="258" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C258" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D258" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="F258" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="H258" t="s">
         <v>39</v>
@@ -19602,39 +19617,39 @@
         <v>1170</v>
       </c>
       <c r="L258" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M258" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N258" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O258" t="s">
         <v>1906</v>
       </c>
-      <c r="M258" t="s">
+      <c r="AE258" t="s">
         <v>1907</v>
       </c>
-      <c r="N258" t="s">
-        <v>1908</v>
-      </c>
-      <c r="O258" t="s">
-        <v>1909</v>
-      </c>
-      <c r="AE258" t="s">
-        <v>1910</v>
-      </c>
       <c r="AG258" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH258" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="259" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C259" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D259" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="F259" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="H259" t="s">
         <v>39</v>
@@ -19649,42 +19664,42 @@
         <v>1170</v>
       </c>
       <c r="L259" t="s">
+        <v>1911</v>
+      </c>
+      <c r="M259" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N259" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O259" t="s">
         <v>1914</v>
       </c>
-      <c r="M259" t="s">
-        <v>1915</v>
-      </c>
-      <c r="N259" t="s">
-        <v>1916</v>
-      </c>
-      <c r="O259" t="s">
-        <v>1917</v>
-      </c>
       <c r="AE259" t="s">
-        <v>1918</v>
+        <v>2920</v>
       </c>
       <c r="AH259" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="260" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C260" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="D260" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="F260" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="H260" t="s">
         <v>39</v>
       </c>
       <c r="I260" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="J260" t="s">
         <v>258</v>
@@ -19699,30 +19714,30 @@
         <v>548</v>
       </c>
       <c r="N260" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="O260" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="AE260" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="AH260" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="261" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C261" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="D261" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F261" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="H261" t="s">
         <v>39</v>
@@ -19737,39 +19752,39 @@
         <v>238</v>
       </c>
       <c r="L261" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M261" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N261" t="s">
+        <v>1926</v>
+      </c>
+      <c r="O261" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AG261" t="s">
         <v>1929</v>
       </c>
-      <c r="N261" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O261" t="s">
-        <v>1931</v>
-      </c>
-      <c r="AE261" t="s">
-        <v>1932</v>
-      </c>
-      <c r="AG261" t="s">
-        <v>1933</v>
-      </c>
       <c r="AH261" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="262" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C262" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="D262" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="F262" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="H262" t="s">
         <v>39</v>
@@ -19784,39 +19799,39 @@
         <v>1170</v>
       </c>
       <c r="L262" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M262" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="N262" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="O262" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="AE262" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="AG262" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH262" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="263" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C263" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="D263" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="F263" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="H263" t="s">
         <v>39</v>
@@ -19831,27 +19846,27 @@
         <v>1170</v>
       </c>
       <c r="L263" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="M263" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="N263" t="s">
         <v>1419</v>
       </c>
       <c r="AE263" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="AG263" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH263" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="264" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C264" t="s">
         <v>711</v>
@@ -19860,7 +19875,7 @@
         <v>712</v>
       </c>
       <c r="F264" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="H264" t="s">
         <v>39</v>
@@ -19887,33 +19902,33 @@
         <v>58</v>
       </c>
       <c r="Q264" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="AE264" t="s">
-        <v>1948</v>
+        <v>2922</v>
       </c>
       <c r="AH264" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="265" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C265" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="D265" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="F265" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="H265" t="s">
         <v>39</v>
       </c>
       <c r="I265" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="J265" t="s">
         <v>134</v>
@@ -19925,86 +19940,86 @@
         <v>136</v>
       </c>
       <c r="M265" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="N265" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="O265" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="AE265" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="AG265" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH265" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="266" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C266" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="D266" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="F266" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="H266" t="s">
         <v>39</v>
       </c>
       <c r="I266" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J266" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="K266" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="L266" t="s">
         <v>797</v>
       </c>
       <c r="M266" t="s">
+        <v>1958</v>
+      </c>
+      <c r="N266" t="s">
+        <v>1959</v>
+      </c>
+      <c r="O266" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AG266" t="s">
         <v>1963</v>
       </c>
-      <c r="N266" t="s">
-        <v>1964</v>
-      </c>
-      <c r="O266" t="s">
-        <v>1965</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>1966</v>
-      </c>
-      <c r="AE266" t="s">
-        <v>1967</v>
-      </c>
-      <c r="AG266" t="s">
-        <v>1968</v>
-      </c>
       <c r="AH266" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="267" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C267" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="D267" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="F267" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H267" t="s">
         <v>39</v>
@@ -20019,42 +20034,42 @@
         <v>238</v>
       </c>
       <c r="L267" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M267" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="N267" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="O267" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="Q267" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="AE267" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="AG267" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH267" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="268" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C268" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="D268" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="F268" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="H268" t="s">
         <v>39</v>
@@ -20069,39 +20084,39 @@
         <v>238</v>
       </c>
       <c r="L268" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M268" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="N268" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="O268" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="AE268" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="AG268" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH268" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="269" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C269" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="D269" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="F269" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="H269" t="s">
         <v>39</v>
@@ -20116,10 +20131,10 @@
         <v>238</v>
       </c>
       <c r="L269" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M269" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="N269" t="s">
         <v>645</v>
@@ -20128,30 +20143,30 @@
         <v>170</v>
       </c>
       <c r="Q269" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="AE269" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="AG269" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH269" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="270" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C270" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="D270" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="F270" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="H270" t="s">
         <v>39</v>
@@ -20166,36 +20181,36 @@
         <v>238</v>
       </c>
       <c r="L270" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M270" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="N270" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="O270" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="AE270" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="AH270" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="271" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C271" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="D271" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="F271" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="H271" t="s">
         <v>39</v>
@@ -20207,42 +20222,42 @@
         <v>85</v>
       </c>
       <c r="K271" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L271" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M271" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N271" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O271" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AE271" t="s">
         <v>1999</v>
       </c>
-      <c r="L271" t="s">
+      <c r="AG271" t="s">
         <v>2000</v>
       </c>
-      <c r="M271" t="s">
-        <v>2001</v>
-      </c>
-      <c r="N271" t="s">
-        <v>2002</v>
-      </c>
-      <c r="O271" t="s">
-        <v>2003</v>
-      </c>
-      <c r="AE271" t="s">
-        <v>2004</v>
-      </c>
-      <c r="AG271" t="s">
-        <v>2005</v>
-      </c>
       <c r="AH271" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="272" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C272" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D272" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F272" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="H272" t="s">
         <v>39</v>
@@ -20251,45 +20266,45 @@
         <v>133</v>
       </c>
       <c r="J272" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K272" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L272" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M272" t="s">
+        <v>2007</v>
+      </c>
+      <c r="N272" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O272" t="s">
         <v>2009</v>
       </c>
-      <c r="K272" t="s">
+      <c r="AE272" t="s">
         <v>2010</v>
       </c>
-      <c r="L272" t="s">
-        <v>2011</v>
-      </c>
-      <c r="M272" t="s">
-        <v>2012</v>
-      </c>
-      <c r="N272" t="s">
-        <v>2013</v>
-      </c>
-      <c r="O272" t="s">
-        <v>2014</v>
-      </c>
-      <c r="AE272" t="s">
-        <v>2015</v>
-      </c>
       <c r="AG272" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH272" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="273" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C273" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D273" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F273" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="H273" t="s">
         <v>39</v>
@@ -20304,39 +20319,39 @@
         <v>124</v>
       </c>
       <c r="L273" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M273" t="s">
+        <v>2015</v>
+      </c>
+      <c r="N273" t="s">
+        <v>2016</v>
+      </c>
+      <c r="O273" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AG273" t="s">
         <v>2019</v>
       </c>
-      <c r="M273" t="s">
-        <v>2020</v>
-      </c>
-      <c r="N273" t="s">
-        <v>2021</v>
-      </c>
-      <c r="O273" t="s">
-        <v>2022</v>
-      </c>
-      <c r="AE273" t="s">
-        <v>2023</v>
-      </c>
-      <c r="AG273" t="s">
-        <v>2024</v>
-      </c>
       <c r="AH273" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="274" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C274" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D274" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="F274" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="H274" t="s">
         <v>39</v>
@@ -20351,227 +20366,227 @@
         <v>124</v>
       </c>
       <c r="L274" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="M274" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="N274" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="O274" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="AE274" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="AG274" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH274" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="275" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C275" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="D275" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="F275" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="H275" t="s">
         <v>39</v>
       </c>
       <c r="I275" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J275" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K275" t="s">
+        <v>2031</v>
+      </c>
+      <c r="L275" t="s">
+        <v>1825</v>
+      </c>
+      <c r="M275" t="s">
+        <v>2032</v>
+      </c>
+      <c r="N275" t="s">
+        <v>2033</v>
+      </c>
+      <c r="O275" t="s">
         <v>2034</v>
       </c>
-      <c r="J275" t="s">
+      <c r="AE275" t="s">
         <v>2035</v>
       </c>
-      <c r="K275" t="s">
-        <v>2036</v>
-      </c>
-      <c r="L275" t="s">
-        <v>1827</v>
-      </c>
-      <c r="M275" t="s">
-        <v>2037</v>
-      </c>
-      <c r="N275" t="s">
-        <v>2038</v>
-      </c>
-      <c r="O275" t="s">
-        <v>2039</v>
-      </c>
-      <c r="AE275" t="s">
-        <v>2040</v>
-      </c>
       <c r="AG275" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH275" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="276" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C276" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="D276" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="F276" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="H276" t="s">
         <v>39</v>
       </c>
       <c r="I276" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="J276" t="s">
+        <v>85</v>
+      </c>
+      <c r="K276" t="s">
+        <v>2039</v>
+      </c>
+      <c r="L276" t="s">
+        <v>2040</v>
+      </c>
+      <c r="M276" t="s">
+        <v>2041</v>
+      </c>
+      <c r="N276" t="s">
+        <v>2042</v>
+      </c>
+      <c r="O276" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AE276" t="s">
         <v>2044</v>
       </c>
-      <c r="K276" t="s">
-        <v>2045</v>
-      </c>
-      <c r="L276" t="s">
-        <v>2046</v>
-      </c>
-      <c r="M276" t="s">
-        <v>2047</v>
-      </c>
-      <c r="N276" t="s">
-        <v>2048</v>
-      </c>
-      <c r="O276" t="s">
-        <v>2049</v>
-      </c>
-      <c r="AE276" t="s">
-        <v>2050</v>
-      </c>
       <c r="AG276" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="AH276" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="277" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C277" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D277" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="F277" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="H277" t="s">
         <v>39</v>
       </c>
       <c r="I277" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="J277" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="K277" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="L277" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M277" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="N277" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="O277" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="AE277" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="AG277" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="AH277" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="278" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C278" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D278" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="F278" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="H278" t="s">
         <v>39</v>
       </c>
       <c r="I278" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J278" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K278" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L278" t="s">
+        <v>2058</v>
+      </c>
+      <c r="M278" t="s">
+        <v>2059</v>
+      </c>
+      <c r="N278" t="s">
+        <v>2060</v>
+      </c>
+      <c r="O278" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AE278" t="s">
         <v>2062</v>
       </c>
-      <c r="K278" t="s">
-        <v>2063</v>
-      </c>
-      <c r="L278" t="s">
-        <v>2064</v>
-      </c>
-      <c r="M278" t="s">
-        <v>2065</v>
-      </c>
-      <c r="N278" t="s">
-        <v>2066</v>
-      </c>
-      <c r="O278" t="s">
-        <v>2067</v>
-      </c>
-      <c r="AE278" t="s">
-        <v>2068</v>
-      </c>
       <c r="AG278" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH278" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="279" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C279" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D279" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="F279" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="H279" t="s">
         <v>39</v>
@@ -20583,51 +20598,51 @@
         <v>52</v>
       </c>
       <c r="K279" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="L279" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="M279" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="N279" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="O279" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="AE279" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="AG279" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="AH279" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="280" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C280" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="D280" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="F280" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="H280" t="s">
         <v>39</v>
       </c>
       <c r="I280" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="J280" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="K280" t="s">
         <v>860</v>
@@ -20639,42 +20654,42 @@
         <v>862</v>
       </c>
       <c r="N280" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="O280" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="AE280" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="AG280" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="AH280" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="281" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C281" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="D281" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="F281" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="H281" t="s">
         <v>39</v>
       </c>
       <c r="I281" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="J281" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="K281" t="s">
         <v>860</v>
@@ -20686,30 +20701,30 @@
         <v>862</v>
       </c>
       <c r="N281" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="O281" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="AE281" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="AH281" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="282" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C282" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="D282" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="F282" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="H282" t="s">
         <v>39</v>
@@ -20718,45 +20733,45 @@
         <v>51</v>
       </c>
       <c r="J282" t="s">
+        <v>85</v>
+      </c>
+      <c r="K282" t="s">
+        <v>2088</v>
+      </c>
+      <c r="L282" t="s">
+        <v>2089</v>
+      </c>
+      <c r="M282" t="s">
+        <v>2090</v>
+      </c>
+      <c r="N282" t="s">
+        <v>2091</v>
+      </c>
+      <c r="O282" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AG282" t="s">
         <v>2094</v>
       </c>
-      <c r="K282" t="s">
-        <v>2095</v>
-      </c>
-      <c r="L282" t="s">
-        <v>2096</v>
-      </c>
-      <c r="M282" t="s">
-        <v>2097</v>
-      </c>
-      <c r="N282" t="s">
-        <v>2098</v>
-      </c>
-      <c r="O282" t="s">
-        <v>2099</v>
-      </c>
-      <c r="AE282" t="s">
-        <v>2100</v>
-      </c>
-      <c r="AG282" t="s">
-        <v>2101</v>
-      </c>
       <c r="AH282" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="283" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C283" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D283" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="F283" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="H283" t="s">
         <v>39</v>
@@ -20771,39 +20786,39 @@
         <v>1161</v>
       </c>
       <c r="L283" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="M283" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="N283" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="O283" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="AE283" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="AG283" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH283" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="284" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C284" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="D284" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="F284" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="H284" t="s">
         <v>39</v>
@@ -20818,39 +20833,39 @@
         <v>1161</v>
       </c>
       <c r="L284" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="M284" t="s">
+        <v>2099</v>
+      </c>
+      <c r="N284" t="s">
         <v>2106</v>
       </c>
-      <c r="N284" t="s">
-        <v>2113</v>
-      </c>
       <c r="O284" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="AE284" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="AG284" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH284" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="285" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C285" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="D285" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="F285" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="H285" t="s">
         <v>39</v>
@@ -20865,36 +20880,36 @@
         <v>1161</v>
       </c>
       <c r="L285" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="M285" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="N285" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="O285" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="AE285" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="AH285" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="286" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C286" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="D286" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="F286" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="H286" t="s">
         <v>39</v>
@@ -20909,36 +20924,36 @@
         <v>1161</v>
       </c>
       <c r="L286" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="M286" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="N286" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="O286" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="AE286" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="AH286" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="287" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C287" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="D287" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="F287" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="H287" t="s">
         <v>39</v>
@@ -20953,39 +20968,39 @@
         <v>1161</v>
       </c>
       <c r="L287" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="M287" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="N287" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="O287" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="AE287" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="AF287" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="AH287" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="288" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C288" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="D288" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="F288" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="H288" t="s">
         <v>39</v>
@@ -20997,45 +21012,45 @@
         <v>85</v>
       </c>
       <c r="K288" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="L288" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="M288" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="N288" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="O288" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="Q288" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="AE288" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="AG288" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AH288" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="289" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C289" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D289" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="F289" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="H289" t="s">
         <v>39</v>
@@ -21050,39 +21065,39 @@
         <v>1170</v>
       </c>
       <c r="L289" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="M289" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="N289" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="O289" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="AE289" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="AG289" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH289" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="290" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C290" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="D290" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="F290" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="H290" t="s">
         <v>39</v>
@@ -21094,42 +21109,42 @@
         <v>52</v>
       </c>
       <c r="K290" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="L290" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="M290" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="N290" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="O290" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="AE290" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="AG290" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH290" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="291" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C291" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="D291" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="F291" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="H291" t="s">
         <v>39</v>
@@ -21144,39 +21159,39 @@
         <v>1170</v>
       </c>
       <c r="L291" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="M291" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="N291" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="O291" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="AE291" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="AG291" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH291" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="292" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C292" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="D292" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="F292" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="H292" t="s">
         <v>39</v>
@@ -21194,40 +21209,40 @@
         <v>715</v>
       </c>
       <c r="M292" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="N292" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="O292" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="Q292" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="R292" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S292" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T292" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="U292" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V292" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W292" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X292" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y292" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z292">
         <v>1</v>
@@ -21239,24 +21254,24 @@
         <v>18</v>
       </c>
       <c r="AE292" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="AH292" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="293" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C293" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="D293" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="F293" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="H293" t="s">
         <v>39</v>
@@ -21271,39 +21286,39 @@
         <v>238</v>
       </c>
       <c r="L293" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="M293" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="N293" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="O293" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="AE293" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="AG293" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH293" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="294" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C294" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="D294" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="F294" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="H294" t="s">
         <v>39</v>
@@ -21312,48 +21327,48 @@
         <v>122</v>
       </c>
       <c r="J294" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K294" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L294" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M294" t="s">
+        <v>2188</v>
+      </c>
+      <c r="N294" t="s">
+        <v>2189</v>
+      </c>
+      <c r="O294" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AE294" t="s">
         <v>2192</v>
       </c>
-      <c r="K294" t="s">
-        <v>2193</v>
-      </c>
-      <c r="L294" t="s">
-        <v>2194</v>
-      </c>
-      <c r="M294" t="s">
-        <v>2195</v>
-      </c>
-      <c r="N294" t="s">
-        <v>2196</v>
-      </c>
-      <c r="O294" t="s">
-        <v>2197</v>
-      </c>
-      <c r="Q294" t="s">
-        <v>2198</v>
-      </c>
-      <c r="AE294" t="s">
-        <v>2199</v>
-      </c>
       <c r="AG294" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="AH294" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="295" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C295" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="D295" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="F295" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="H295" t="s">
         <v>39</v>
@@ -21365,42 +21380,42 @@
         <v>52</v>
       </c>
       <c r="K295" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="L295" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="M295" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="N295" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="O295" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="AE295" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="AG295" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH295" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="296" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C296" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="D296" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="F296" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="H296" t="s">
         <v>39</v>
@@ -21415,39 +21430,39 @@
         <v>1170</v>
       </c>
       <c r="L296" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="M296" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="N296" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="O296" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="AE296" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="AG296" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH296" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="297" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C297" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="D297" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="F297" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="H297" t="s">
         <v>39</v>
@@ -21462,39 +21477,39 @@
         <v>238</v>
       </c>
       <c r="L297" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="M297" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="N297" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="O297" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="AE297" t="s">
-        <v>2223</v>
+        <v>2917</v>
       </c>
       <c r="AG297" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH297" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="298" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C298" t="s">
-        <v>2224</v>
+        <v>2216</v>
       </c>
       <c r="D298" t="s">
-        <v>2225</v>
+        <v>2217</v>
       </c>
       <c r="F298" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="H298" t="s">
         <v>39</v>
@@ -21506,42 +21521,42 @@
         <v>134</v>
       </c>
       <c r="K298" t="s">
-        <v>2227</v>
+        <v>2219</v>
       </c>
       <c r="L298" t="s">
-        <v>2228</v>
+        <v>2220</v>
       </c>
       <c r="M298" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
       <c r="N298" t="s">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="O298" t="s">
-        <v>2231</v>
+        <v>2223</v>
       </c>
       <c r="AE298" t="s">
-        <v>2232</v>
+        <v>2224</v>
       </c>
       <c r="AG298" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH298" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="299" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C299" t="s">
-        <v>2233</v>
+        <v>2225</v>
       </c>
       <c r="D299" t="s">
-        <v>2234</v>
+        <v>2226</v>
       </c>
       <c r="F299" t="s">
-        <v>2235</v>
+        <v>2227</v>
       </c>
       <c r="H299" t="s">
         <v>39</v>
@@ -21556,39 +21571,39 @@
         <v>1178</v>
       </c>
       <c r="L299" t="s">
-        <v>2236</v>
+        <v>2228</v>
       </c>
       <c r="M299" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
       <c r="N299" t="s">
-        <v>2238</v>
+        <v>2230</v>
       </c>
       <c r="O299">
         <v>238</v>
       </c>
       <c r="AE299" t="s">
-        <v>2239</v>
+        <v>2231</v>
       </c>
       <c r="AG299" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="AH299" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="300" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C300" t="s">
-        <v>2240</v>
+        <v>2232</v>
       </c>
       <c r="D300" t="s">
-        <v>2241</v>
+        <v>2233</v>
       </c>
       <c r="F300" t="s">
-        <v>2242</v>
+        <v>2234</v>
       </c>
       <c r="H300" t="s">
         <v>39</v>
@@ -21600,42 +21615,42 @@
         <v>134</v>
       </c>
       <c r="K300" t="s">
-        <v>2243</v>
+        <v>2235</v>
       </c>
       <c r="L300" t="s">
         <v>209</v>
       </c>
       <c r="M300" t="s">
-        <v>2244</v>
+        <v>2236</v>
       </c>
       <c r="N300" t="s">
         <v>1513</v>
       </c>
       <c r="O300" t="s">
-        <v>2245</v>
+        <v>2237</v>
       </c>
       <c r="AE300" t="s">
-        <v>2246</v>
+        <v>2238</v>
       </c>
       <c r="AG300" t="s">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="AH300" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="301" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C301" t="s">
-        <v>2248</v>
+        <v>2240</v>
       </c>
       <c r="D301" t="s">
-        <v>2249</v>
+        <v>2241</v>
       </c>
       <c r="F301" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
       <c r="H301" t="s">
         <v>39</v>
@@ -21647,92 +21662,92 @@
         <v>85</v>
       </c>
       <c r="K301" t="s">
-        <v>2251</v>
+        <v>2243</v>
       </c>
       <c r="L301" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
       <c r="M301" t="s">
-        <v>2253</v>
+        <v>2245</v>
       </c>
       <c r="N301" t="s">
-        <v>2254</v>
+        <v>2246</v>
       </c>
       <c r="O301" t="s">
-        <v>2255</v>
+        <v>2247</v>
       </c>
       <c r="AE301" t="s">
-        <v>2256</v>
+        <v>2248</v>
       </c>
       <c r="AG301" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="AH301" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="302" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C302" t="s">
-        <v>2257</v>
+        <v>2249</v>
       </c>
       <c r="D302" t="s">
-        <v>2258</v>
+        <v>2250</v>
       </c>
       <c r="F302" t="s">
-        <v>2259</v>
+        <v>2251</v>
       </c>
       <c r="H302" t="s">
         <v>39</v>
       </c>
       <c r="I302" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J302" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="K302" t="s">
         <v>635</v>
       </c>
       <c r="L302" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="M302" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
       <c r="N302" t="s">
-        <v>2262</v>
+        <v>2254</v>
       </c>
       <c r="O302" t="s">
-        <v>2263</v>
+        <v>2255</v>
       </c>
       <c r="Q302" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="AE302" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
       <c r="AG302" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH302" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="303" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C303" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="D303" t="s">
-        <v>2267</v>
+        <v>2259</v>
       </c>
       <c r="F303" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="H303" t="s">
         <v>39</v>
@@ -21750,36 +21765,36 @@
         <v>1533</v>
       </c>
       <c r="M303" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="N303" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="O303" t="s">
-        <v>2271</v>
+        <v>2263</v>
       </c>
       <c r="AE303" t="s">
-        <v>2272</v>
+        <v>2916</v>
       </c>
       <c r="AG303" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH303" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="304" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C304" t="s">
-        <v>2273</v>
+        <v>2264</v>
       </c>
       <c r="D304" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F304" t="s">
-        <v>2275</v>
+        <v>2266</v>
       </c>
       <c r="H304" t="s">
         <v>39</v>
@@ -21797,27 +21812,27 @@
         <v>1533</v>
       </c>
       <c r="M304" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="N304" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="O304" t="s">
-        <v>2276</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="305" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C305" t="s">
-        <v>2277</v>
+        <v>2268</v>
       </c>
       <c r="D305" t="s">
-        <v>2278</v>
+        <v>2269</v>
       </c>
       <c r="F305" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="H305" t="s">
         <v>39</v>
@@ -21835,36 +21850,36 @@
         <v>1533</v>
       </c>
       <c r="M305" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="N305" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="O305" t="s">
-        <v>2281</v>
+        <v>2272</v>
       </c>
       <c r="AE305" t="s">
-        <v>2282</v>
+        <v>2915</v>
       </c>
       <c r="AG305" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="AH305" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="306" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C306" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="D306" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="F306" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="H306" t="s">
         <v>39</v>
@@ -21879,30 +21894,30 @@
         <v>238</v>
       </c>
       <c r="L306" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="M306" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="N306" t="s">
-        <v>2288</v>
+        <v>2278</v>
       </c>
       <c r="O306" t="s">
-        <v>2289</v>
+        <v>2279</v>
       </c>
       <c r="AE306" t="s">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="AG306" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="AH306" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="307" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C307" t="s">
         <v>1126</v>
@@ -21911,13 +21926,13 @@
         <v>1127</v>
       </c>
       <c r="F307" t="s">
-        <v>2293</v>
+        <v>2283</v>
       </c>
       <c r="H307" t="s">
         <v>39</v>
       </c>
       <c r="I307" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="J307" t="s">
         <v>96</v>
@@ -21938,27 +21953,27 @@
         <v>1132</v>
       </c>
       <c r="AE307" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="AG307" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH307" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="308" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C308" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
       <c r="D308" t="s">
-        <v>2297</v>
+        <v>2287</v>
       </c>
       <c r="F308" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
       <c r="H308" t="s">
         <v>39</v>
@@ -21976,36 +21991,36 @@
         <v>715</v>
       </c>
       <c r="M308" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="N308" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="O308" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="AE308" t="s">
-        <v>2302</v>
+        <v>2914</v>
       </c>
       <c r="AG308" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH308" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="309" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C309" t="s">
         <v>2292</v>
       </c>
-      <c r="C309" t="s">
-        <v>2303</v>
-      </c>
       <c r="D309" t="s">
-        <v>2304</v>
+        <v>2293</v>
       </c>
       <c r="F309" t="s">
-        <v>2305</v>
+        <v>2294</v>
       </c>
       <c r="H309" t="s">
         <v>39</v>
@@ -22020,39 +22035,39 @@
         <v>238</v>
       </c>
       <c r="L309" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M309" t="s">
-        <v>2306</v>
+        <v>2295</v>
       </c>
       <c r="N309" t="s">
-        <v>2307</v>
+        <v>2296</v>
       </c>
       <c r="O309" t="s">
-        <v>2308</v>
+        <v>2297</v>
       </c>
       <c r="AE309" t="s">
-        <v>2309</v>
+        <v>2298</v>
       </c>
       <c r="AG309" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH309" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="310" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C310" t="s">
-        <v>2310</v>
+        <v>2299</v>
       </c>
       <c r="D310" t="s">
-        <v>2311</v>
+        <v>2300</v>
       </c>
       <c r="F310" t="s">
-        <v>2312</v>
+        <v>2301</v>
       </c>
       <c r="H310" t="s">
         <v>39</v>
@@ -22067,39 +22082,39 @@
         <v>238</v>
       </c>
       <c r="L310" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M310" t="s">
-        <v>2306</v>
+        <v>2295</v>
       </c>
       <c r="N310" t="s">
-        <v>2313</v>
+        <v>2302</v>
       </c>
       <c r="O310" t="s">
-        <v>2314</v>
+        <v>2303</v>
       </c>
       <c r="AE310" t="s">
-        <v>2315</v>
+        <v>2304</v>
       </c>
       <c r="AG310" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH310" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="311" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C311" t="s">
-        <v>2316</v>
+        <v>2305</v>
       </c>
       <c r="D311" t="s">
-        <v>2317</v>
+        <v>2306</v>
       </c>
       <c r="F311" t="s">
-        <v>2318</v>
+        <v>2307</v>
       </c>
       <c r="H311" t="s">
         <v>39</v>
@@ -22114,39 +22129,39 @@
         <v>238</v>
       </c>
       <c r="L311" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M311" t="s">
-        <v>2306</v>
+        <v>2295</v>
       </c>
       <c r="N311" t="s">
-        <v>2319</v>
+        <v>2308</v>
       </c>
       <c r="O311" t="s">
-        <v>2320</v>
+        <v>2309</v>
       </c>
       <c r="AE311" t="s">
-        <v>2321</v>
+        <v>2310</v>
       </c>
       <c r="AG311" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH311" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="312" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C312" t="s">
-        <v>2322</v>
+        <v>2311</v>
       </c>
       <c r="D312" t="s">
-        <v>2323</v>
+        <v>2312</v>
       </c>
       <c r="F312" t="s">
-        <v>2324</v>
+        <v>2313</v>
       </c>
       <c r="H312" t="s">
         <v>39</v>
@@ -22161,36 +22176,36 @@
         <v>238</v>
       </c>
       <c r="L312" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="M312" t="s">
-        <v>2306</v>
+        <v>2295</v>
       </c>
       <c r="N312" t="s">
-        <v>2325</v>
+        <v>2314</v>
       </c>
       <c r="O312" t="s">
-        <v>2326</v>
+        <v>2315</v>
       </c>
       <c r="AE312" t="s">
-        <v>2327</v>
+        <v>2316</v>
       </c>
       <c r="AH312" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="313" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C313" t="s">
-        <v>2328</v>
+        <v>2317</v>
       </c>
       <c r="D313" t="s">
-        <v>2329</v>
+        <v>2318</v>
       </c>
       <c r="F313" t="s">
-        <v>2330</v>
+        <v>2319</v>
       </c>
       <c r="H313" t="s">
         <v>39</v>
@@ -22214,30 +22229,30 @@
         <v>1164</v>
       </c>
       <c r="O313" t="s">
-        <v>2331</v>
+        <v>2320</v>
       </c>
       <c r="AE313" t="s">
-        <v>2332</v>
+        <v>2321</v>
       </c>
       <c r="AG313" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH313" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="314" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C314" t="s">
-        <v>2333</v>
+        <v>2322</v>
       </c>
       <c r="D314" t="s">
-        <v>2334</v>
+        <v>2323</v>
       </c>
       <c r="F314" t="s">
-        <v>2335</v>
+        <v>2324</v>
       </c>
       <c r="H314" t="s">
         <v>39</v>
@@ -22258,24 +22273,24 @@
         <v>1163</v>
       </c>
       <c r="N314" t="s">
-        <v>2336</v>
+        <v>2325</v>
       </c>
       <c r="O314" t="s">
-        <v>2337</v>
+        <v>2326</v>
       </c>
       <c r="AE314" t="s">
-        <v>2338</v>
+        <v>2327</v>
       </c>
       <c r="AG314" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH314" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="315" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C315" t="s">
         <v>1200</v>
@@ -22284,13 +22299,13 @@
         <v>1201</v>
       </c>
       <c r="F315" t="s">
-        <v>2339</v>
+        <v>2328</v>
       </c>
       <c r="H315" t="s">
         <v>39</v>
       </c>
       <c r="I315" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="J315" t="s">
         <v>96</v>
@@ -22313,16 +22328,16 @@
     </row>
     <row r="316" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C316" t="s">
-        <v>2340</v>
+        <v>2329</v>
       </c>
       <c r="D316" t="s">
-        <v>2341</v>
+        <v>2330</v>
       </c>
       <c r="F316" t="s">
-        <v>2342</v>
+        <v>2331</v>
       </c>
       <c r="H316" t="s">
         <v>39</v>
@@ -22331,42 +22346,42 @@
         <v>144</v>
       </c>
       <c r="J316" t="s">
-        <v>2343</v>
+        <v>2332</v>
       </c>
       <c r="K316" t="s">
-        <v>2344</v>
+        <v>2333</v>
       </c>
       <c r="L316" t="s">
-        <v>2345</v>
+        <v>2334</v>
       </c>
       <c r="M316" t="s">
-        <v>2346</v>
+        <v>2335</v>
       </c>
       <c r="N316" t="s">
         <v>1446</v>
       </c>
       <c r="O316" t="s">
-        <v>2347</v>
+        <v>2336</v>
       </c>
       <c r="AE316" t="s">
-        <v>2348</v>
+        <v>2337</v>
       </c>
       <c r="AH316" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="317" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C317" t="s">
-        <v>2349</v>
+        <v>2338</v>
       </c>
       <c r="D317" t="s">
-        <v>2350</v>
+        <v>2339</v>
       </c>
       <c r="F317" t="s">
-        <v>2351</v>
+        <v>2340</v>
       </c>
       <c r="H317" t="s">
         <v>39</v>
@@ -22387,33 +22402,33 @@
         <v>1255</v>
       </c>
       <c r="N317" t="s">
-        <v>2352</v>
+        <v>2341</v>
       </c>
       <c r="O317" t="s">
-        <v>2353</v>
+        <v>2342</v>
       </c>
       <c r="AE317" t="s">
-        <v>2354</v>
+        <v>2343</v>
       </c>
       <c r="AG317" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH317" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="318" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C318" t="s">
-        <v>2355</v>
+        <v>2344</v>
       </c>
       <c r="D318" t="s">
-        <v>2356</v>
+        <v>2345</v>
       </c>
       <c r="F318" t="s">
-        <v>2357</v>
+        <v>2346</v>
       </c>
       <c r="H318" t="s">
         <v>39</v>
@@ -22422,45 +22437,45 @@
         <v>133</v>
       </c>
       <c r="J318" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="K318" t="s">
-        <v>2358</v>
+        <v>2347</v>
       </c>
       <c r="L318" t="s">
-        <v>2359</v>
+        <v>2348</v>
       </c>
       <c r="M318" t="s">
-        <v>2360</v>
+        <v>2349</v>
       </c>
       <c r="N318" t="s">
-        <v>2361</v>
+        <v>2350</v>
       </c>
       <c r="O318" t="s">
-        <v>2362</v>
+        <v>2351</v>
       </c>
       <c r="AE318" t="s">
-        <v>2363</v>
+        <v>2352</v>
       </c>
       <c r="AG318" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH318" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="319" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C319" t="s">
-        <v>2364</v>
+        <v>2353</v>
       </c>
       <c r="D319" t="s">
-        <v>2365</v>
+        <v>2354</v>
       </c>
       <c r="F319" t="s">
-        <v>2366</v>
+        <v>2355</v>
       </c>
       <c r="H319" t="s">
         <v>39</v>
@@ -22481,30 +22496,30 @@
         <v>1272</v>
       </c>
       <c r="N319" t="s">
-        <v>2367</v>
+        <v>2356</v>
       </c>
       <c r="O319" t="s">
-        <v>2368</v>
+        <v>2357</v>
       </c>
       <c r="AE319" t="s">
-        <v>2369</v>
+        <v>2358</v>
       </c>
       <c r="AH319" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="320" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>2370</v>
+        <v>2359</v>
       </c>
       <c r="C320" t="s">
-        <v>2371</v>
+        <v>2360</v>
       </c>
       <c r="D320" t="s">
-        <v>2372</v>
+        <v>2361</v>
       </c>
       <c r="F320" t="s">
-        <v>2373</v>
+        <v>2362</v>
       </c>
       <c r="H320" t="s">
         <v>39</v>
@@ -22519,19 +22534,19 @@
         <v>238</v>
       </c>
       <c r="L320" t="s">
-        <v>2374</v>
+        <v>2363</v>
       </c>
       <c r="M320" t="s">
-        <v>2375</v>
+        <v>2364</v>
       </c>
       <c r="N320" t="s">
-        <v>2376</v>
+        <v>2365</v>
       </c>
       <c r="O320" t="s">
-        <v>2377</v>
+        <v>2366</v>
       </c>
       <c r="Q320" t="s">
-        <v>2378</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="321" spans="1:34" x14ac:dyDescent="0.2">
@@ -22539,16 +22554,16 @@
         <v>1</v>
       </c>
       <c r="B321" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C321" t="s">
-        <v>2380</v>
+        <v>2369</v>
       </c>
       <c r="D321" t="s">
-        <v>2381</v>
+        <v>2370</v>
       </c>
       <c r="F321" t="s">
-        <v>2382</v>
+        <v>2371</v>
       </c>
       <c r="H321" t="s">
         <v>39</v>
@@ -22563,25 +22578,25 @@
         <v>238</v>
       </c>
       <c r="L321" t="s">
+        <v>2363</v>
+      </c>
+      <c r="M321" t="s">
+        <v>2364</v>
+      </c>
+      <c r="N321" t="s">
+        <v>2372</v>
+      </c>
+      <c r="O321" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AE321" t="s">
         <v>2374</v>
       </c>
-      <c r="M321" t="s">
-        <v>2375</v>
-      </c>
-      <c r="N321" t="s">
-        <v>2383</v>
-      </c>
-      <c r="O321" t="s">
-        <v>2384</v>
-      </c>
-      <c r="AE321" t="s">
-        <v>2385</v>
-      </c>
       <c r="AG321" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH321" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="322" spans="1:34" x14ac:dyDescent="0.2">
@@ -22589,16 +22604,16 @@
         <v>2</v>
       </c>
       <c r="B322" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C322" t="s">
-        <v>2386</v>
+        <v>2375</v>
       </c>
       <c r="D322" t="s">
-        <v>2387</v>
+        <v>2376</v>
       </c>
       <c r="F322" t="s">
-        <v>2388</v>
+        <v>2377</v>
       </c>
       <c r="H322" t="s">
         <v>39</v>
@@ -22613,25 +22628,25 @@
         <v>238</v>
       </c>
       <c r="L322" t="s">
-        <v>2374</v>
+        <v>2363</v>
       </c>
       <c r="M322" t="s">
-        <v>2375</v>
+        <v>2364</v>
       </c>
       <c r="N322" t="s">
         <v>190</v>
       </c>
       <c r="O322" t="s">
-        <v>2389</v>
+        <v>2378</v>
       </c>
       <c r="AE322" t="s">
-        <v>2390</v>
+        <v>2918</v>
       </c>
       <c r="AG322" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH322" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="323" spans="1:34" x14ac:dyDescent="0.2">
@@ -22639,16 +22654,16 @@
         <v>3</v>
       </c>
       <c r="B323" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C323" t="s">
         <v>2379</v>
       </c>
-      <c r="C323" t="s">
-        <v>2391</v>
-      </c>
       <c r="D323" t="s">
-        <v>2392</v>
+        <v>2380</v>
       </c>
       <c r="F323" t="s">
-        <v>2393</v>
+        <v>2381</v>
       </c>
       <c r="H323" t="s">
         <v>39</v>
@@ -22669,16 +22684,16 @@
         <v>1279</v>
       </c>
       <c r="N323" t="s">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="O323" t="s">
-        <v>2395</v>
+        <v>2383</v>
       </c>
       <c r="AE323" t="s">
-        <v>2396</v>
+        <v>2384</v>
       </c>
       <c r="AH323" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="324" spans="1:34" x14ac:dyDescent="0.2">
@@ -22686,16 +22701,16 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C324" t="s">
-        <v>2397</v>
+        <v>2385</v>
       </c>
       <c r="D324" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="F324" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
       <c r="H324" t="s">
         <v>39</v>
@@ -22710,25 +22725,25 @@
         <v>1170</v>
       </c>
       <c r="L324" t="s">
-        <v>2400</v>
+        <v>2388</v>
       </c>
       <c r="M324" t="s">
-        <v>2401</v>
+        <v>2389</v>
       </c>
       <c r="N324" t="s">
-        <v>2402</v>
+        <v>2390</v>
       </c>
       <c r="O324" t="s">
-        <v>2403</v>
+        <v>2391</v>
       </c>
       <c r="AE324" t="s">
-        <v>2404</v>
+        <v>2392</v>
       </c>
       <c r="AG324" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH324" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="325" spans="1:34" x14ac:dyDescent="0.2">
@@ -22736,16 +22751,16 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C325" t="s">
-        <v>2405</v>
+        <v>2393</v>
       </c>
       <c r="D325" t="s">
-        <v>2406</v>
+        <v>2394</v>
       </c>
       <c r="F325" t="s">
-        <v>2407</v>
+        <v>2395</v>
       </c>
       <c r="H325" t="s">
         <v>39</v>
@@ -22757,28 +22772,28 @@
         <v>85</v>
       </c>
       <c r="K325" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="L325" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="M325" t="s">
-        <v>2408</v>
+        <v>2396</v>
       </c>
       <c r="N325" t="s">
-        <v>2409</v>
+        <v>2397</v>
       </c>
       <c r="O325">
         <v>1021</v>
       </c>
       <c r="AE325" t="s">
-        <v>2410</v>
+        <v>2398</v>
       </c>
       <c r="AG325" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AH325" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="326" spans="1:34" x14ac:dyDescent="0.2">
@@ -22786,16 +22801,16 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C326" t="s">
-        <v>2411</v>
+        <v>2399</v>
       </c>
       <c r="D326" t="s">
-        <v>2412</v>
+        <v>2400</v>
       </c>
       <c r="F326" t="s">
-        <v>2413</v>
+        <v>2401</v>
       </c>
       <c r="H326" t="s">
         <v>39</v>
@@ -22810,7 +22825,7 @@
         <v>696</v>
       </c>
       <c r="L326" t="s">
-        <v>2414</v>
+        <v>2402</v>
       </c>
       <c r="M326" t="s">
         <v>1325</v>
@@ -22819,16 +22834,16 @@
         <v>444</v>
       </c>
       <c r="O326" t="s">
-        <v>2415</v>
+        <v>2403</v>
       </c>
       <c r="AE326" t="s">
-        <v>2416</v>
+        <v>2404</v>
       </c>
       <c r="AG326" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH326" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="327" spans="1:34" x14ac:dyDescent="0.2">
@@ -22836,49 +22851,49 @@
         <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C327" t="s">
-        <v>2417</v>
+        <v>2405</v>
       </c>
       <c r="D327" t="s">
-        <v>2418</v>
+        <v>2406</v>
       </c>
       <c r="F327" t="s">
-        <v>2419</v>
+        <v>2407</v>
       </c>
       <c r="H327" t="s">
         <v>39</v>
       </c>
       <c r="I327" t="s">
-        <v>2420</v>
+        <v>2408</v>
       </c>
       <c r="J327" t="s">
-        <v>2421</v>
+        <v>2409</v>
       </c>
       <c r="K327" t="s">
-        <v>2422</v>
+        <v>2410</v>
       </c>
       <c r="L327" t="s">
-        <v>2423</v>
+        <v>2411</v>
       </c>
       <c r="M327" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="N327" t="s">
-        <v>2425</v>
+        <v>2413</v>
       </c>
       <c r="O327" t="s">
-        <v>2426</v>
+        <v>2414</v>
       </c>
       <c r="AE327" t="s">
-        <v>2427</v>
+        <v>2415</v>
       </c>
       <c r="AG327" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH327" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="328" spans="1:34" x14ac:dyDescent="0.2">
@@ -22886,7 +22901,7 @@
         <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C328" t="s">
         <v>1448</v>
@@ -22895,13 +22910,13 @@
         <v>1449</v>
       </c>
       <c r="F328" t="s">
-        <v>2428</v>
+        <v>2416</v>
       </c>
       <c r="H328" t="s">
         <v>39</v>
       </c>
       <c r="I328" t="s">
-        <v>2429</v>
+        <v>2417</v>
       </c>
       <c r="J328" t="s">
         <v>653</v>
@@ -22922,13 +22937,13 @@
         <v>1455</v>
       </c>
       <c r="AE328" t="s">
-        <v>2430</v>
+        <v>2418</v>
       </c>
       <c r="AG328" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="AH328" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="329" spans="1:34" x14ac:dyDescent="0.2">
@@ -22936,46 +22951,46 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C329" t="s">
-        <v>2431</v>
+        <v>2419</v>
       </c>
       <c r="D329" t="s">
-        <v>2432</v>
+        <v>2420</v>
       </c>
       <c r="F329" t="s">
-        <v>2433</v>
+        <v>2421</v>
       </c>
       <c r="H329" t="s">
         <v>39</v>
       </c>
       <c r="I329" t="s">
-        <v>2434</v>
+        <v>2422</v>
       </c>
       <c r="J329" t="s">
-        <v>2435</v>
+        <v>2423</v>
       </c>
       <c r="K329" t="s">
-        <v>2436</v>
+        <v>2424</v>
       </c>
       <c r="L329" t="s">
-        <v>2437</v>
+        <v>2425</v>
       </c>
       <c r="M329" t="s">
-        <v>2438</v>
+        <v>2426</v>
       </c>
       <c r="N329" t="s">
-        <v>2439</v>
+        <v>2427</v>
       </c>
       <c r="O329" t="s">
-        <v>2440</v>
+        <v>2428</v>
       </c>
       <c r="AE329" t="s">
-        <v>2441</v>
+        <v>2429</v>
       </c>
       <c r="AH329" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="330" spans="1:34" x14ac:dyDescent="0.2">
@@ -22983,49 +22998,49 @@
         <v>10</v>
       </c>
       <c r="B330" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C330" t="s">
-        <v>2442</v>
+        <v>2430</v>
       </c>
       <c r="D330" t="s">
-        <v>2443</v>
+        <v>2431</v>
       </c>
       <c r="F330" t="s">
-        <v>2444</v>
+        <v>2432</v>
       </c>
       <c r="H330" t="s">
         <v>39</v>
       </c>
       <c r="I330" t="s">
+        <v>2422</v>
+      </c>
+      <c r="J330" t="s">
+        <v>2423</v>
+      </c>
+      <c r="K330" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L330" t="s">
+        <v>2425</v>
+      </c>
+      <c r="M330" t="s">
+        <v>2426</v>
+      </c>
+      <c r="N330" t="s">
+        <v>2433</v>
+      </c>
+      <c r="O330" t="s">
         <v>2434</v>
       </c>
-      <c r="J330" t="s">
+      <c r="AE330" t="s">
         <v>2435</v>
       </c>
-      <c r="K330" t="s">
-        <v>2436</v>
-      </c>
-      <c r="L330" t="s">
-        <v>2437</v>
-      </c>
-      <c r="M330" t="s">
-        <v>2438</v>
-      </c>
-      <c r="N330" t="s">
-        <v>2445</v>
-      </c>
-      <c r="O330" t="s">
-        <v>2446</v>
-      </c>
-      <c r="AE330" t="s">
-        <v>2447</v>
-      </c>
       <c r="AG330" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AH330" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="331" spans="1:34" x14ac:dyDescent="0.2">
@@ -23033,16 +23048,16 @@
         <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C331" t="s">
-        <v>2448</v>
+        <v>2436</v>
       </c>
       <c r="D331" t="s">
-        <v>2449</v>
+        <v>2437</v>
       </c>
       <c r="F331" t="s">
-        <v>2450</v>
+        <v>2438</v>
       </c>
       <c r="H331" t="s">
         <v>39</v>
@@ -23054,28 +23069,28 @@
         <v>52</v>
       </c>
       <c r="K331" t="s">
-        <v>2451</v>
+        <v>2439</v>
       </c>
       <c r="L331" t="s">
-        <v>2452</v>
+        <v>2440</v>
       </c>
       <c r="M331" t="s">
-        <v>2453</v>
+        <v>2441</v>
       </c>
       <c r="N331" t="s">
-        <v>2454</v>
+        <v>2442</v>
       </c>
       <c r="O331" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="AE331" t="s">
-        <v>2456</v>
+        <v>2444</v>
       </c>
       <c r="AG331" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH331" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="332" spans="1:34" x14ac:dyDescent="0.2">
@@ -23083,16 +23098,16 @@
         <v>12</v>
       </c>
       <c r="B332" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C332" t="s">
-        <v>2457</v>
+        <v>2445</v>
       </c>
       <c r="D332" t="s">
-        <v>2458</v>
+        <v>2446</v>
       </c>
       <c r="F332" t="s">
-        <v>2459</v>
+        <v>2447</v>
       </c>
       <c r="H332" t="s">
         <v>39</v>
@@ -23107,25 +23122,25 @@
         <v>1170</v>
       </c>
       <c r="L332" t="s">
-        <v>2460</v>
+        <v>2448</v>
       </c>
       <c r="M332" t="s">
-        <v>2461</v>
+        <v>2449</v>
       </c>
       <c r="N332" t="s">
-        <v>2462</v>
+        <v>2450</v>
       </c>
       <c r="O332" t="s">
-        <v>2463</v>
+        <v>2451</v>
       </c>
       <c r="AE332" t="s">
-        <v>2464</v>
+        <v>2919</v>
       </c>
       <c r="AG332" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH332" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="333" spans="1:34" x14ac:dyDescent="0.2">
@@ -23133,16 +23148,16 @@
         <v>13</v>
       </c>
       <c r="B333" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C333" t="s">
-        <v>2465</v>
+        <v>2452</v>
       </c>
       <c r="D333" t="s">
-        <v>2466</v>
+        <v>2453</v>
       </c>
       <c r="F333" t="s">
-        <v>2467</v>
+        <v>2454</v>
       </c>
       <c r="H333" t="s">
         <v>39</v>
@@ -23154,22 +23169,22 @@
         <v>52</v>
       </c>
       <c r="K333" t="s">
-        <v>2468</v>
+        <v>2455</v>
       </c>
       <c r="L333" t="s">
-        <v>2469</v>
+        <v>2456</v>
       </c>
       <c r="M333" t="s">
-        <v>2470</v>
+        <v>2457</v>
       </c>
       <c r="N333" t="s">
-        <v>2471</v>
+        <v>2458</v>
       </c>
       <c r="O333" t="s">
-        <v>2472</v>
+        <v>2459</v>
       </c>
       <c r="Q333" t="s">
-        <v>2473</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="334" spans="1:34" x14ac:dyDescent="0.2">
@@ -23177,28 +23192,28 @@
         <v>14</v>
       </c>
       <c r="B334" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C334" t="s">
-        <v>2474</v>
+        <v>2461</v>
       </c>
       <c r="D334" t="s">
-        <v>2475</v>
+        <v>2462</v>
       </c>
       <c r="F334" t="s">
-        <v>2476</v>
+        <v>2463</v>
       </c>
       <c r="H334" t="s">
         <v>39</v>
       </c>
       <c r="I334" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="J334" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="K334" t="s">
-        <v>2477</v>
+        <v>2464</v>
       </c>
       <c r="L334" t="s">
         <v>1479</v>
@@ -23207,16 +23222,16 @@
         <v>1480</v>
       </c>
       <c r="N334" t="s">
-        <v>2478</v>
+        <v>2465</v>
       </c>
       <c r="O334" t="s">
-        <v>2479</v>
+        <v>2466</v>
       </c>
       <c r="AE334" t="s">
-        <v>2480</v>
+        <v>2467</v>
       </c>
       <c r="AH334" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="335" spans="1:34" x14ac:dyDescent="0.2">
@@ -23224,16 +23239,16 @@
         <v>15</v>
       </c>
       <c r="B335" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C335" t="s">
-        <v>2481</v>
+        <v>2468</v>
       </c>
       <c r="D335" t="s">
-        <v>2482</v>
+        <v>2469</v>
       </c>
       <c r="F335" t="s">
-        <v>2483</v>
+        <v>2470</v>
       </c>
       <c r="H335" t="s">
         <v>39</v>
@@ -23254,19 +23269,19 @@
         <v>1534</v>
       </c>
       <c r="N335" t="s">
-        <v>2484</v>
+        <v>2471</v>
       </c>
       <c r="O335" t="s">
-        <v>2485</v>
+        <v>2472</v>
       </c>
       <c r="AE335" t="s">
-        <v>2486</v>
+        <v>2473</v>
       </c>
       <c r="AG335" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH335" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="336" spans="1:34" x14ac:dyDescent="0.2">
@@ -23274,16 +23289,16 @@
         <v>16</v>
       </c>
       <c r="B336" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C336" t="s">
-        <v>2487</v>
+        <v>2474</v>
       </c>
       <c r="D336" t="s">
-        <v>2488</v>
+        <v>2475</v>
       </c>
       <c r="F336" t="s">
-        <v>2489</v>
+        <v>2476</v>
       </c>
       <c r="H336" t="s">
         <v>39</v>
@@ -23307,16 +23322,16 @@
         <v>1543</v>
       </c>
       <c r="O336" t="s">
-        <v>2490</v>
+        <v>2477</v>
       </c>
       <c r="AE336" t="s">
-        <v>2491</v>
+        <v>2478</v>
       </c>
       <c r="AG336" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH336" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="337" spans="1:34" x14ac:dyDescent="0.2">
@@ -23324,16 +23339,16 @@
         <v>17</v>
       </c>
       <c r="B337" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C337" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F337" t="s">
         <v>1740</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F337" t="s">
-        <v>1742</v>
       </c>
       <c r="H337" t="s">
         <v>39</v>
@@ -23351,25 +23366,25 @@
         <v>1533</v>
       </c>
       <c r="M337" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N337" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O337" t="s">
         <v>1743</v>
       </c>
-      <c r="N337" t="s">
-        <v>1744</v>
-      </c>
-      <c r="O337" t="s">
-        <v>1745</v>
-      </c>
       <c r="Q337" t="s">
-        <v>2492</v>
+        <v>2479</v>
       </c>
       <c r="AE337" t="s">
-        <v>2493</v>
+        <v>2480</v>
       </c>
       <c r="AG337" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH337" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="338" spans="1:34" x14ac:dyDescent="0.2">
@@ -23377,16 +23392,16 @@
         <v>18</v>
       </c>
       <c r="B338" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C338" t="s">
-        <v>2494</v>
+        <v>2481</v>
       </c>
       <c r="D338" t="s">
-        <v>2495</v>
+        <v>2482</v>
       </c>
       <c r="F338" t="s">
-        <v>2496</v>
+        <v>2483</v>
       </c>
       <c r="H338" t="s">
         <v>39</v>
@@ -23407,19 +23422,19 @@
         <v>1534</v>
       </c>
       <c r="N338" t="s">
-        <v>2497</v>
+        <v>2484</v>
       </c>
       <c r="O338" t="s">
-        <v>2498</v>
+        <v>2485</v>
       </c>
       <c r="AE338" t="s">
-        <v>2499</v>
+        <v>2486</v>
       </c>
       <c r="AG338" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AH338" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="339" spans="1:34" x14ac:dyDescent="0.2">
@@ -23427,16 +23442,16 @@
         <v>19</v>
       </c>
       <c r="B339" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C339" t="s">
-        <v>2500</v>
+        <v>2487</v>
       </c>
       <c r="D339" t="s">
-        <v>2501</v>
+        <v>2488</v>
       </c>
       <c r="F339" t="s">
-        <v>2502</v>
+        <v>2489</v>
       </c>
       <c r="H339" t="s">
         <v>39</v>
@@ -23457,19 +23472,19 @@
         <v>1534</v>
       </c>
       <c r="N339" t="s">
-        <v>2503</v>
+        <v>2490</v>
       </c>
       <c r="O339" t="s">
-        <v>2504</v>
+        <v>2491</v>
       </c>
       <c r="AE339" t="s">
-        <v>2505</v>
+        <v>2492</v>
       </c>
       <c r="AG339" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AH339" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="340" spans="1:34" x14ac:dyDescent="0.2">
@@ -23477,16 +23492,16 @@
         <v>20</v>
       </c>
       <c r="B340" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C340" t="s">
-        <v>2506</v>
+        <v>2493</v>
       </c>
       <c r="D340" t="s">
-        <v>2507</v>
+        <v>2494</v>
       </c>
       <c r="F340" t="s">
-        <v>2508</v>
+        <v>2495</v>
       </c>
       <c r="H340" t="s">
         <v>39</v>
@@ -23495,31 +23510,31 @@
         <v>122</v>
       </c>
       <c r="J340" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="K340" t="s">
         <v>124</v>
       </c>
       <c r="L340" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M340" t="s">
+        <v>2496</v>
+      </c>
+      <c r="N340" t="s">
+        <v>2497</v>
+      </c>
+      <c r="O340" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AG340" t="s">
         <v>2019</v>
       </c>
-      <c r="M340" t="s">
-        <v>2509</v>
-      </c>
-      <c r="N340" t="s">
-        <v>2510</v>
-      </c>
-      <c r="O340" t="s">
-        <v>2511</v>
-      </c>
-      <c r="AE340" t="s">
-        <v>2512</v>
-      </c>
-      <c r="AG340" t="s">
-        <v>2024</v>
-      </c>
       <c r="AH340" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="341" spans="1:34" x14ac:dyDescent="0.2">
@@ -23527,16 +23542,16 @@
         <v>21</v>
       </c>
       <c r="B341" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C341" t="s">
-        <v>2513</v>
+        <v>2500</v>
       </c>
       <c r="D341" t="s">
-        <v>2514</v>
+        <v>2501</v>
       </c>
       <c r="F341" t="s">
-        <v>2515</v>
+        <v>2502</v>
       </c>
       <c r="H341" t="s">
         <v>39</v>
@@ -23548,28 +23563,28 @@
         <v>52</v>
       </c>
       <c r="K341" t="s">
-        <v>2516</v>
+        <v>2503</v>
       </c>
       <c r="L341" t="s">
-        <v>2517</v>
+        <v>2504</v>
       </c>
       <c r="M341" t="s">
-        <v>2518</v>
+        <v>2505</v>
       </c>
       <c r="N341" t="s">
-        <v>2519</v>
+        <v>2506</v>
       </c>
       <c r="O341" t="s">
-        <v>2520</v>
+        <v>2507</v>
       </c>
       <c r="AE341" t="s">
-        <v>2521</v>
+        <v>2508</v>
       </c>
       <c r="AG341" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="AH341" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="342" spans="1:34" x14ac:dyDescent="0.2">
@@ -23577,16 +23592,16 @@
         <v>22</v>
       </c>
       <c r="B342" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C342" t="s">
-        <v>2522</v>
+        <v>2509</v>
       </c>
       <c r="D342" t="s">
-        <v>2523</v>
+        <v>2510</v>
       </c>
       <c r="F342" t="s">
-        <v>2524</v>
+        <v>2511</v>
       </c>
       <c r="H342" t="s">
         <v>39</v>
@@ -23610,16 +23625,16 @@
         <v>1589</v>
       </c>
       <c r="O342" t="s">
-        <v>2525</v>
+        <v>2512</v>
       </c>
       <c r="AE342" t="s">
-        <v>2526</v>
+        <v>2513</v>
       </c>
       <c r="AG342" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AH342" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="343" spans="1:34" x14ac:dyDescent="0.2">
@@ -23627,16 +23642,16 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
       <c r="C343" t="s">
-        <v>2527</v>
+        <v>2514</v>
       </c>
       <c r="D343" t="s">
-        <v>2528</v>
+        <v>2515</v>
       </c>
       <c r="F343" t="s">
-        <v>2529</v>
+        <v>2516</v>
       </c>
       <c r="H343" t="s">
         <v>39</v>
@@ -23654,22 +23669,22 @@
         <v>1301</v>
       </c>
       <c r="M343" t="s">
-        <v>2530</v>
+        <v>2517</v>
       </c>
       <c r="N343" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="O343" t="s">
-        <v>2531</v>
+        <v>2518</v>
       </c>
       <c r="AE343" t="s">
-        <v>2532</v>
+        <v>2519</v>
       </c>
       <c r="AG343" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="AH343" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="344" spans="1:34" x14ac:dyDescent="0.2">
@@ -23677,16 +23692,16 @@
         <v>24</v>
       </c>
       <c r="B344" t="s">
-        <v>2533</v>
+        <v>2520</v>
       </c>
       <c r="C344" t="s">
-        <v>2534</v>
+        <v>2521</v>
       </c>
       <c r="D344" t="s">
-        <v>2535</v>
+        <v>2522</v>
       </c>
       <c r="F344" t="s">
-        <v>2536</v>
+        <v>2523</v>
       </c>
       <c r="H344" t="s">
         <v>39</v>
@@ -23707,10 +23722,10 @@
         <v>698</v>
       </c>
       <c r="N344" t="s">
-        <v>2537</v>
+        <v>2524</v>
       </c>
       <c r="O344" t="s">
-        <v>2538</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="345" spans="1:34" x14ac:dyDescent="0.2">
@@ -23718,22 +23733,22 @@
         <v>25</v>
       </c>
       <c r="B345" t="s">
-        <v>2533</v>
+        <v>2520</v>
       </c>
       <c r="C345" t="s">
-        <v>2539</v>
+        <v>2526</v>
       </c>
       <c r="D345" t="s">
-        <v>2540</v>
+        <v>2527</v>
       </c>
       <c r="F345" t="s">
-        <v>2541</v>
+        <v>2528</v>
       </c>
       <c r="H345" t="s">
         <v>39</v>
       </c>
       <c r="I345" t="s">
-        <v>2542</v>
+        <v>2529</v>
       </c>
       <c r="J345" t="s">
         <v>593</v>
@@ -23745,27 +23760,27 @@
         <v>939</v>
       </c>
       <c r="M345" t="s">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="N345" t="s">
         <v>826</v>
       </c>
       <c r="O345" t="s">
-        <v>2544</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="346" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C346" t="s">
-        <v>2546</v>
+        <v>2533</v>
       </c>
       <c r="D346" t="s">
-        <v>2547</v>
+        <v>2534</v>
       </c>
       <c r="F346" t="s">
-        <v>2548</v>
+        <v>2535</v>
       </c>
       <c r="H346" t="s">
         <v>39</v>
@@ -23783,37 +23798,37 @@
         <v>715</v>
       </c>
       <c r="M346" t="s">
-        <v>2549</v>
+        <v>2536</v>
       </c>
       <c r="N346" t="s">
-        <v>2550</v>
+        <v>2537</v>
       </c>
       <c r="O346" t="s">
-        <v>2551</v>
+        <v>2538</v>
       </c>
       <c r="R346" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S346" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="T346" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U346" t="s">
-        <v>2554</v>
+        <v>2541</v>
       </c>
       <c r="V346" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W346" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X346" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y346" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z346">
         <v>1</v>
@@ -23827,16 +23842,16 @@
     </row>
     <row r="347" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C347" t="s">
-        <v>2555</v>
+        <v>2542</v>
       </c>
       <c r="D347" t="s">
-        <v>2556</v>
+        <v>2543</v>
       </c>
       <c r="F347" t="s">
-        <v>2557</v>
+        <v>2544</v>
       </c>
       <c r="H347" t="s">
         <v>39</v>
@@ -23854,37 +23869,37 @@
         <v>715</v>
       </c>
       <c r="M347" t="s">
-        <v>2558</v>
+        <v>2545</v>
       </c>
       <c r="N347" t="s">
-        <v>2559</v>
+        <v>2546</v>
       </c>
       <c r="O347" t="s">
-        <v>2560</v>
+        <v>2547</v>
       </c>
       <c r="R347" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S347" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T347" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U347" t="s">
-        <v>2561</v>
+        <v>2548</v>
       </c>
       <c r="V347" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W347" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X347" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y347" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z347">
         <v>1</v>
@@ -23898,16 +23913,16 @@
     </row>
     <row r="348" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C348" t="s">
-        <v>2562</v>
+        <v>2549</v>
       </c>
       <c r="D348" t="s">
-        <v>2563</v>
+        <v>2550</v>
       </c>
       <c r="F348" t="s">
-        <v>2564</v>
+        <v>2551</v>
       </c>
       <c r="H348" t="s">
         <v>39</v>
@@ -23925,37 +23940,37 @@
         <v>715</v>
       </c>
       <c r="M348" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="N348" t="s">
-        <v>2566</v>
+        <v>2553</v>
       </c>
       <c r="O348" t="s">
-        <v>2567</v>
+        <v>2554</v>
       </c>
       <c r="R348" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
       <c r="S348" t="s">
-        <v>2569</v>
+        <v>2556</v>
       </c>
       <c r="T348" t="s">
-        <v>2570</v>
+        <v>2557</v>
       </c>
       <c r="U348" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V348" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W348" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X348" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y348" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z348">
         <v>1</v>
@@ -23969,16 +23984,16 @@
     </row>
     <row r="349" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C349" t="s">
-        <v>2571</v>
+        <v>2558</v>
       </c>
       <c r="D349" t="s">
-        <v>2572</v>
+        <v>2559</v>
       </c>
       <c r="F349" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="H349" t="s">
         <v>39</v>
@@ -23996,37 +24011,37 @@
         <v>715</v>
       </c>
       <c r="M349" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
       <c r="N349" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="O349" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
       <c r="R349" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="S349" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="T349" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="U349" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
       <c r="V349" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W349" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="X349" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y349" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z349">
         <v>3</v>
@@ -24038,21 +24053,21 @@
         <v>3</v>
       </c>
       <c r="AD349" t="s">
-        <v>2582</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="350" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C350" t="s">
-        <v>2583</v>
+        <v>2570</v>
       </c>
       <c r="D350" t="s">
-        <v>2584</v>
+        <v>2571</v>
       </c>
       <c r="F350" t="s">
-        <v>2585</v>
+        <v>2572</v>
       </c>
       <c r="H350" t="s">
         <v>39</v>
@@ -24070,40 +24085,40 @@
         <v>715</v>
       </c>
       <c r="M350" t="s">
-        <v>2586</v>
+        <v>2573</v>
       </c>
       <c r="N350" t="s">
-        <v>2587</v>
+        <v>2574</v>
       </c>
       <c r="O350" t="s">
-        <v>2588</v>
+        <v>2575</v>
       </c>
       <c r="Q350" t="s">
-        <v>2589</v>
+        <v>2576</v>
       </c>
       <c r="R350" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S350" t="s">
-        <v>2590</v>
+        <v>2577</v>
       </c>
       <c r="T350" t="s">
-        <v>2591</v>
+        <v>2578</v>
       </c>
       <c r="U350" t="s">
-        <v>2592</v>
+        <v>2579</v>
       </c>
       <c r="V350" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W350" t="s">
-        <v>2593</v>
+        <v>2580</v>
       </c>
       <c r="X350" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y350" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z350">
         <v>3</v>
@@ -24118,21 +24133,21 @@
         <v>1</v>
       </c>
       <c r="AD350" t="s">
-        <v>2582</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="351" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C351" t="s">
-        <v>2594</v>
+        <v>2581</v>
       </c>
       <c r="D351" t="s">
-        <v>2595</v>
+        <v>2582</v>
       </c>
       <c r="F351" t="s">
-        <v>2596</v>
+        <v>2583</v>
       </c>
       <c r="H351" t="s">
         <v>39</v>
@@ -24150,37 +24165,37 @@
         <v>715</v>
       </c>
       <c r="M351" t="s">
-        <v>2597</v>
+        <v>2584</v>
       </c>
       <c r="N351" t="s">
-        <v>2598</v>
+        <v>2585</v>
       </c>
       <c r="O351" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
       <c r="R351" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S351" t="s">
-        <v>2600</v>
+        <v>2587</v>
       </c>
       <c r="T351" t="s">
-        <v>2601</v>
+        <v>2588</v>
       </c>
       <c r="U351" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V351" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W351" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X351" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y351" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z351">
         <v>1</v>
@@ -24194,16 +24209,16 @@
     </row>
     <row r="352" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C352" t="s">
-        <v>2602</v>
+        <v>2589</v>
       </c>
       <c r="D352" t="s">
-        <v>2603</v>
+        <v>2590</v>
       </c>
       <c r="F352" t="s">
-        <v>2604</v>
+        <v>2591</v>
       </c>
       <c r="H352" t="s">
         <v>39</v>
@@ -24221,37 +24236,37 @@
         <v>715</v>
       </c>
       <c r="M352" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="N352" t="s">
-        <v>2606</v>
+        <v>2593</v>
       </c>
       <c r="O352" t="s">
-        <v>2607</v>
+        <v>2594</v>
       </c>
       <c r="R352" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S352" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T352" t="s">
-        <v>2608</v>
+        <v>2595</v>
       </c>
       <c r="U352" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V352" t="s">
-        <v>2609</v>
+        <v>2596</v>
       </c>
       <c r="W352" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X352" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y352" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z352">
         <v>2</v>
@@ -24260,21 +24275,21 @@
         <v>1</v>
       </c>
       <c r="AD352" t="s">
-        <v>2610</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="353" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C353" t="s">
-        <v>2611</v>
+        <v>2598</v>
       </c>
       <c r="D353" t="s">
-        <v>2612</v>
+        <v>2599</v>
       </c>
       <c r="F353" t="s">
-        <v>2613</v>
+        <v>2600</v>
       </c>
       <c r="H353" t="s">
         <v>39</v>
@@ -24292,40 +24307,40 @@
         <v>715</v>
       </c>
       <c r="M353" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="N353" t="s">
         <v>883</v>
       </c>
       <c r="O353" t="s">
-        <v>2614</v>
+        <v>2601</v>
       </c>
       <c r="Q353" t="s">
-        <v>2615</v>
+        <v>2602</v>
       </c>
       <c r="R353" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S353" t="s">
         <v>289</v>
       </c>
       <c r="T353" t="s">
-        <v>2616</v>
+        <v>2603</v>
       </c>
       <c r="U353" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V353" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W353" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X353" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y353" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z353">
         <v>1</v>
@@ -24337,24 +24352,24 @@
         <v>18</v>
       </c>
       <c r="AE353" t="s">
-        <v>2617</v>
+        <v>2604</v>
       </c>
       <c r="AH353" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="354" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C354" t="s">
-        <v>2618</v>
+        <v>2605</v>
       </c>
       <c r="D354" t="s">
-        <v>2619</v>
+        <v>2606</v>
       </c>
       <c r="F354" t="s">
-        <v>2620</v>
+        <v>2607</v>
       </c>
       <c r="H354" t="s">
         <v>39</v>
@@ -24372,40 +24387,40 @@
         <v>715</v>
       </c>
       <c r="M354" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="N354" t="s">
         <v>883</v>
       </c>
       <c r="O354" t="s">
-        <v>2621</v>
+        <v>2608</v>
       </c>
       <c r="Q354" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
       <c r="R354" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S354" t="s">
         <v>289</v>
       </c>
       <c r="T354" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="U354" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V354" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
       <c r="W354" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X354" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y354" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z354">
         <v>2</v>
@@ -24414,21 +24429,21 @@
         <v>1</v>
       </c>
       <c r="AD354" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="355" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C355" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
       <c r="D355" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="F355" t="s">
-        <v>2628</v>
+        <v>2615</v>
       </c>
       <c r="H355" t="s">
         <v>39</v>
@@ -24446,40 +24461,40 @@
         <v>715</v>
       </c>
       <c r="M355" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="N355" t="s">
-        <v>2629</v>
+        <v>2616</v>
       </c>
       <c r="O355" t="s">
-        <v>2630</v>
+        <v>2617</v>
       </c>
       <c r="Q355" t="s">
-        <v>2631</v>
+        <v>2618</v>
       </c>
       <c r="R355" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S355" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T355" t="s">
-        <v>2632</v>
+        <v>2619</v>
       </c>
       <c r="U355" t="s">
-        <v>2633</v>
+        <v>2620</v>
       </c>
       <c r="V355" t="s">
-        <v>2634</v>
+        <v>2621</v>
       </c>
       <c r="W355" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X355" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y355" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z355">
         <v>3</v>
@@ -24494,21 +24509,21 @@
         <v>1</v>
       </c>
       <c r="AD355" t="s">
-        <v>2635</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="356" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C356" t="s">
-        <v>2636</v>
+        <v>2623</v>
       </c>
       <c r="D356" t="s">
-        <v>2637</v>
+        <v>2624</v>
       </c>
       <c r="F356" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="H356" t="s">
         <v>39</v>
@@ -24526,37 +24541,37 @@
         <v>715</v>
       </c>
       <c r="M356" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="N356" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="O356" t="s">
-        <v>2641</v>
+        <v>2628</v>
       </c>
       <c r="R356" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S356" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T356" t="s">
-        <v>2642</v>
+        <v>2629</v>
       </c>
       <c r="U356" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V356" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W356" t="s">
-        <v>2643</v>
+        <v>2630</v>
       </c>
       <c r="X356" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y356" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z356">
         <v>2</v>
@@ -24570,16 +24585,16 @@
     </row>
     <row r="357" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C357" t="s">
-        <v>2644</v>
+        <v>2631</v>
       </c>
       <c r="D357" t="s">
-        <v>2645</v>
+        <v>2632</v>
       </c>
       <c r="F357" t="s">
-        <v>2646</v>
+        <v>2633</v>
       </c>
       <c r="H357" t="s">
         <v>39</v>
@@ -24597,13 +24612,13 @@
         <v>715</v>
       </c>
       <c r="M357" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="N357" t="s">
-        <v>2537</v>
+        <v>2524</v>
       </c>
       <c r="O357" t="s">
-        <v>2648</v>
+        <v>2635</v>
       </c>
       <c r="R357" t="s">
         <v>289</v>
@@ -24612,22 +24627,22 @@
         <v>289</v>
       </c>
       <c r="T357" t="s">
-        <v>2649</v>
+        <v>2636</v>
       </c>
       <c r="U357" t="s">
-        <v>2650</v>
+        <v>2637</v>
       </c>
       <c r="V357" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W357" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X357" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y357" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z357">
         <v>2</v>
@@ -24636,21 +24651,21 @@
         <v>1</v>
       </c>
       <c r="AD357" t="s">
-        <v>2651</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="358" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C358" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
       <c r="D358" t="s">
-        <v>2653</v>
+        <v>2640</v>
       </c>
       <c r="F358" t="s">
-        <v>2654</v>
+        <v>2641</v>
       </c>
       <c r="H358" t="s">
         <v>39</v>
@@ -24668,37 +24683,37 @@
         <v>715</v>
       </c>
       <c r="M358" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="N358" t="s">
-        <v>2656</v>
+        <v>2643</v>
       </c>
       <c r="O358" t="s">
-        <v>2657</v>
+        <v>2644</v>
       </c>
       <c r="R358" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
       <c r="S358" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
       <c r="T358" t="s">
-        <v>2659</v>
+        <v>2646</v>
       </c>
       <c r="U358" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V358" t="s">
-        <v>2659</v>
+        <v>2646</v>
       </c>
       <c r="W358" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X358" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y358" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z358">
         <v>2</v>
@@ -24707,21 +24722,21 @@
         <v>1</v>
       </c>
       <c r="AD358" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="359" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C359" t="s">
-        <v>2660</v>
+        <v>2647</v>
       </c>
       <c r="D359" t="s">
-        <v>2661</v>
+        <v>2648</v>
       </c>
       <c r="F359" t="s">
-        <v>2662</v>
+        <v>2649</v>
       </c>
       <c r="H359" t="s">
         <v>39</v>
@@ -24739,37 +24754,37 @@
         <v>715</v>
       </c>
       <c r="M359" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="N359" t="s">
-        <v>2663</v>
+        <v>2650</v>
       </c>
       <c r="O359" t="s">
-        <v>2664</v>
+        <v>2651</v>
       </c>
       <c r="R359" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S359" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="T359" t="s">
-        <v>2665</v>
+        <v>2652</v>
       </c>
       <c r="U359" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V359" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W359" t="s">
-        <v>2666</v>
+        <v>2653</v>
       </c>
       <c r="X359" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y359" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z359">
         <v>2</v>
@@ -24783,16 +24798,16 @@
     </row>
     <row r="360" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C360" t="s">
-        <v>2667</v>
+        <v>2654</v>
       </c>
       <c r="D360" t="s">
-        <v>2668</v>
+        <v>2655</v>
       </c>
       <c r="F360" t="s">
-        <v>2669</v>
+        <v>2656</v>
       </c>
       <c r="H360" t="s">
         <v>39</v>
@@ -24810,37 +24825,37 @@
         <v>715</v>
       </c>
       <c r="M360" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
       <c r="N360" t="s">
-        <v>2671</v>
+        <v>2658</v>
       </c>
       <c r="O360" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
       <c r="R360" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S360" t="s">
-        <v>2673</v>
+        <v>2660</v>
       </c>
       <c r="T360" t="s">
-        <v>2674</v>
+        <v>2661</v>
       </c>
       <c r="U360" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V360" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W360" t="s">
-        <v>2675</v>
+        <v>2662</v>
       </c>
       <c r="X360" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y360" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z360">
         <v>2</v>
@@ -24849,21 +24864,21 @@
         <v>1</v>
       </c>
       <c r="AD360" t="s">
-        <v>2676</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="361" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C361" t="s">
-        <v>2677</v>
+        <v>2664</v>
       </c>
       <c r="D361" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
       <c r="F361" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
       <c r="H361" t="s">
         <v>39</v>
@@ -24881,37 +24896,37 @@
         <v>715</v>
       </c>
       <c r="M361" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="N361" t="s">
-        <v>2681</v>
+        <v>2668</v>
       </c>
       <c r="O361" t="s">
-        <v>2682</v>
+        <v>2669</v>
       </c>
       <c r="R361" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S361" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="T361" t="s">
-        <v>2684</v>
+        <v>2671</v>
       </c>
       <c r="U361" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V361" t="s">
-        <v>2685</v>
+        <v>2672</v>
       </c>
       <c r="W361" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X361" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y361" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z361">
         <v>2</v>
@@ -24920,21 +24935,21 @@
         <v>1</v>
       </c>
       <c r="AD361" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="362" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C362" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
       <c r="D362" t="s">
-        <v>2687</v>
+        <v>2674</v>
       </c>
       <c r="F362" t="s">
-        <v>2688</v>
+        <v>2675</v>
       </c>
       <c r="H362" t="s">
         <v>39</v>
@@ -24952,40 +24967,40 @@
         <v>715</v>
       </c>
       <c r="M362" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="N362" t="s">
-        <v>2689</v>
+        <v>2676</v>
       </c>
       <c r="O362" t="s">
-        <v>2690</v>
+        <v>2677</v>
       </c>
       <c r="Q362" t="s">
-        <v>2691</v>
+        <v>2678</v>
       </c>
       <c r="R362" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S362" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="T362" t="s">
-        <v>2692</v>
+        <v>2679</v>
       </c>
       <c r="U362" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V362" t="s">
-        <v>2693</v>
+        <v>2680</v>
       </c>
       <c r="W362" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X362" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y362" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z362">
         <v>2</v>
@@ -24994,21 +25009,21 @@
         <v>1</v>
       </c>
       <c r="AD362" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="363" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C363" t="s">
-        <v>2694</v>
+        <v>2681</v>
       </c>
       <c r="D363" t="s">
-        <v>2695</v>
+        <v>2682</v>
       </c>
       <c r="F363" t="s">
-        <v>2696</v>
+        <v>2683</v>
       </c>
       <c r="H363" t="s">
         <v>39</v>
@@ -25026,37 +25041,37 @@
         <v>715</v>
       </c>
       <c r="M363" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="N363" t="s">
-        <v>2697</v>
+        <v>2684</v>
       </c>
       <c r="O363" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
       <c r="R363" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
       <c r="S363" t="s">
-        <v>2569</v>
+        <v>2556</v>
       </c>
       <c r="T363" t="s">
-        <v>2699</v>
+        <v>2686</v>
       </c>
       <c r="U363" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V363" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W363" t="s">
-        <v>2700</v>
+        <v>2687</v>
       </c>
       <c r="X363" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y363" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z363">
         <v>2</v>
@@ -25065,21 +25080,21 @@
         <v>1</v>
       </c>
       <c r="AD363" t="s">
-        <v>2676</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="364" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C364" t="s">
-        <v>2701</v>
+        <v>2688</v>
       </c>
       <c r="D364" t="s">
-        <v>2702</v>
+        <v>2689</v>
       </c>
       <c r="F364" t="s">
-        <v>2703</v>
+        <v>2690</v>
       </c>
       <c r="H364" t="s">
         <v>39</v>
@@ -25097,37 +25112,37 @@
         <v>715</v>
       </c>
       <c r="M364" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
       <c r="N364" t="s">
-        <v>2704</v>
+        <v>2691</v>
       </c>
       <c r="O364" t="s">
-        <v>2705</v>
+        <v>2692</v>
       </c>
       <c r="R364" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S364" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T364" t="s">
-        <v>2706</v>
+        <v>2693</v>
       </c>
       <c r="U364" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V364" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W364" t="s">
-        <v>2707</v>
+        <v>2694</v>
       </c>
       <c r="X364" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y364" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z364">
         <v>2</v>
@@ -25136,21 +25151,21 @@
         <v>1</v>
       </c>
       <c r="AD364" t="s">
-        <v>2610</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="365" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C365" t="s">
-        <v>2708</v>
+        <v>2695</v>
       </c>
       <c r="D365" t="s">
-        <v>2709</v>
+        <v>2696</v>
       </c>
       <c r="F365" t="s">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="H365" t="s">
         <v>39</v>
@@ -25168,37 +25183,37 @@
         <v>715</v>
       </c>
       <c r="M365" t="s">
-        <v>2711</v>
+        <v>2698</v>
       </c>
       <c r="N365" t="s">
-        <v>2712</v>
+        <v>2699</v>
       </c>
       <c r="O365" t="s">
-        <v>2713</v>
+        <v>2700</v>
       </c>
       <c r="R365" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
       <c r="S365" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
       <c r="T365" t="s">
-        <v>2714</v>
+        <v>2701</v>
       </c>
       <c r="U365" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V365" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W365" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X365" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y365" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z365">
         <v>1</v>
@@ -25212,16 +25227,16 @@
     </row>
     <row r="366" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C366" t="s">
-        <v>2715</v>
+        <v>2702</v>
       </c>
       <c r="D366" t="s">
-        <v>2716</v>
+        <v>2703</v>
       </c>
       <c r="F366" t="s">
-        <v>2717</v>
+        <v>2704</v>
       </c>
       <c r="H366" t="s">
         <v>39</v>
@@ -25239,37 +25254,37 @@
         <v>715</v>
       </c>
       <c r="M366" t="s">
-        <v>2711</v>
+        <v>2698</v>
       </c>
       <c r="N366" t="s">
-        <v>2718</v>
+        <v>2705</v>
       </c>
       <c r="O366" t="s">
-        <v>2719</v>
+        <v>2706</v>
       </c>
       <c r="R366" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S366" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T366" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U366" t="s">
-        <v>2720</v>
+        <v>2707</v>
       </c>
       <c r="V366" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W366" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X366" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y366" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z366">
         <v>1</v>
@@ -25283,16 +25298,16 @@
     </row>
     <row r="367" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C367" t="s">
-        <v>2721</v>
+        <v>2708</v>
       </c>
       <c r="D367" t="s">
-        <v>2722</v>
+        <v>2709</v>
       </c>
       <c r="F367" t="s">
-        <v>2723</v>
+        <v>2710</v>
       </c>
       <c r="H367" t="s">
         <v>39</v>
@@ -25310,37 +25325,37 @@
         <v>715</v>
       </c>
       <c r="M367" t="s">
-        <v>2724</v>
+        <v>2711</v>
       </c>
       <c r="N367" t="s">
-        <v>2725</v>
+        <v>2712</v>
       </c>
       <c r="Q367" t="s">
-        <v>2726</v>
+        <v>2713</v>
       </c>
       <c r="R367" t="s">
-        <v>2727</v>
+        <v>2714</v>
       </c>
       <c r="S367" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
       <c r="T367" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U367" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V367" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W367" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X367" t="s">
-        <v>2729</v>
+        <v>2716</v>
       </c>
       <c r="Y367" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z367">
         <v>1</v>
@@ -25354,16 +25369,16 @@
     </row>
     <row r="368" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C368" t="s">
-        <v>2730</v>
+        <v>2717</v>
       </c>
       <c r="D368" t="s">
-        <v>2731</v>
+        <v>2718</v>
       </c>
       <c r="F368" t="s">
-        <v>2732</v>
+        <v>2719</v>
       </c>
       <c r="H368" t="s">
         <v>39</v>
@@ -25381,40 +25396,40 @@
         <v>715</v>
       </c>
       <c r="M368" t="s">
-        <v>2733</v>
+        <v>2720</v>
       </c>
       <c r="N368" t="s">
-        <v>2734</v>
+        <v>2721</v>
       </c>
       <c r="O368" t="s">
-        <v>2735</v>
+        <v>2722</v>
       </c>
       <c r="Q368" t="s">
-        <v>2736</v>
+        <v>2723</v>
       </c>
       <c r="R368" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S368" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="T368" t="s">
-        <v>2737</v>
+        <v>2724</v>
       </c>
       <c r="U368" t="s">
-        <v>2738</v>
+        <v>2725</v>
       </c>
       <c r="V368" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W368" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X368" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y368" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z368">
         <v>2</v>
@@ -25426,18 +25441,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C369" t="s">
-        <v>2739</v>
+        <v>2726</v>
       </c>
       <c r="D369" t="s">
-        <v>2740</v>
+        <v>2727</v>
       </c>
       <c r="F369" t="s">
-        <v>2741</v>
+        <v>2728</v>
       </c>
       <c r="H369" t="s">
         <v>39</v>
@@ -25455,37 +25470,37 @@
         <v>715</v>
       </c>
       <c r="M369" t="s">
-        <v>2742</v>
+        <v>2729</v>
       </c>
       <c r="N369" t="s">
-        <v>2743</v>
+        <v>2730</v>
       </c>
       <c r="O369" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
       <c r="R369" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S369" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="T369" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="U369" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="V369" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W369" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="X369" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y369" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z369">
         <v>3</v>
@@ -25500,21 +25515,21 @@
         <v>1</v>
       </c>
       <c r="AD369" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="370" spans="2:34" x14ac:dyDescent="0.2">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="370" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C370" t="s">
-        <v>2747</v>
+        <v>2734</v>
       </c>
       <c r="D370" t="s">
-        <v>2748</v>
+        <v>2735</v>
       </c>
       <c r="F370" t="s">
-        <v>2749</v>
+        <v>2736</v>
       </c>
       <c r="H370" t="s">
         <v>39</v>
@@ -25532,37 +25547,37 @@
         <v>715</v>
       </c>
       <c r="M370" t="s">
-        <v>2750</v>
+        <v>2737</v>
       </c>
       <c r="N370" t="s">
-        <v>2751</v>
+        <v>2738</v>
       </c>
       <c r="O370" t="s">
-        <v>2752</v>
+        <v>2739</v>
       </c>
       <c r="R370" t="s">
-        <v>2753</v>
+        <v>2740</v>
       </c>
       <c r="S370" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
       <c r="T370" t="s">
-        <v>2754</v>
+        <v>2741</v>
       </c>
       <c r="U370" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V370" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W370" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X370" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y370" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z370">
         <v>1</v>
@@ -25574,18 +25589,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C371" t="s">
-        <v>2755</v>
+        <v>2742</v>
       </c>
       <c r="D371" t="s">
-        <v>2756</v>
+        <v>2743</v>
       </c>
       <c r="F371" t="s">
-        <v>2757</v>
+        <v>2744</v>
       </c>
       <c r="H371" t="s">
         <v>39</v>
@@ -25603,37 +25618,37 @@
         <v>715</v>
       </c>
       <c r="M371" t="s">
-        <v>2758</v>
+        <v>2745</v>
       </c>
       <c r="N371" t="s">
-        <v>2759</v>
+        <v>2746</v>
       </c>
       <c r="O371" t="s">
-        <v>2760</v>
+        <v>2747</v>
       </c>
       <c r="R371" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S371" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="T371" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U371" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V371" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W371" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X371" t="s">
-        <v>2761</v>
+        <v>2748</v>
       </c>
       <c r="Y371" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z371">
         <v>1</v>
@@ -25645,18 +25660,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C372" t="s">
-        <v>2762</v>
+        <v>2749</v>
       </c>
       <c r="D372" t="s">
-        <v>2763</v>
+        <v>2750</v>
       </c>
       <c r="F372" t="s">
-        <v>2764</v>
+        <v>2751</v>
       </c>
       <c r="H372" t="s">
         <v>39</v>
@@ -25674,37 +25689,37 @@
         <v>715</v>
       </c>
       <c r="M372" t="s">
-        <v>2765</v>
+        <v>2752</v>
       </c>
       <c r="N372" t="s">
-        <v>2766</v>
+        <v>2753</v>
       </c>
       <c r="O372" t="s">
-        <v>2767</v>
+        <v>2754</v>
       </c>
       <c r="R372" t="s">
-        <v>2727</v>
+        <v>2714</v>
       </c>
       <c r="S372" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
       <c r="T372" t="s">
-        <v>2768</v>
+        <v>2755</v>
       </c>
       <c r="U372" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V372" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W372" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X372" t="s">
-        <v>2768</v>
+        <v>2755</v>
       </c>
       <c r="Y372" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z372">
         <v>2</v>
@@ -25713,21 +25728,21 @@
         <v>1</v>
       </c>
       <c r="AD372" t="s">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="373" spans="2:34" x14ac:dyDescent="0.2">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="373" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C373" t="s">
-        <v>2770</v>
+        <v>2757</v>
       </c>
       <c r="D373" t="s">
-        <v>2771</v>
+        <v>2758</v>
       </c>
       <c r="F373" t="s">
-        <v>2772</v>
+        <v>2759</v>
       </c>
       <c r="H373" t="s">
         <v>39</v>
@@ -25745,37 +25760,37 @@
         <v>715</v>
       </c>
       <c r="M373" t="s">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="N373" t="s">
-        <v>2774</v>
+        <v>2761</v>
       </c>
       <c r="O373" t="s">
-        <v>2775</v>
+        <v>2762</v>
       </c>
       <c r="R373" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S373" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="T373" t="s">
-        <v>2776</v>
+        <v>2763</v>
       </c>
       <c r="U373" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V373" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W373" t="s">
-        <v>2777</v>
+        <v>2764</v>
       </c>
       <c r="X373" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y373" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z373">
         <v>2</v>
@@ -25787,18 +25802,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C374" t="s">
-        <v>2778</v>
+        <v>2765</v>
       </c>
       <c r="D374" t="s">
-        <v>2779</v>
+        <v>2766</v>
       </c>
       <c r="F374" t="s">
-        <v>2780</v>
+        <v>2767</v>
       </c>
       <c r="H374" t="s">
         <v>39</v>
@@ -25816,37 +25831,37 @@
         <v>715</v>
       </c>
       <c r="M374" t="s">
-        <v>2781</v>
+        <v>2768</v>
       </c>
       <c r="N374" t="s">
-        <v>2782</v>
+        <v>2769</v>
       </c>
       <c r="O374">
         <v>130333</v>
       </c>
       <c r="R374" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S374" t="s">
-        <v>2783</v>
+        <v>2770</v>
       </c>
       <c r="T374" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U374" t="s">
-        <v>2784</v>
+        <v>2771</v>
       </c>
       <c r="V374" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W374" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X374" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y374" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z374">
         <v>1</v>
@@ -25858,18 +25873,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C375" t="s">
-        <v>2785</v>
+        <v>2772</v>
       </c>
       <c r="D375" t="s">
-        <v>2786</v>
+        <v>2773</v>
       </c>
       <c r="F375" t="s">
-        <v>2787</v>
+        <v>2774</v>
       </c>
       <c r="H375" t="s">
         <v>39</v>
@@ -25890,34 +25905,34 @@
         <v>1576</v>
       </c>
       <c r="N375" t="s">
-        <v>2788</v>
+        <v>2775</v>
       </c>
       <c r="O375" t="s">
-        <v>2789</v>
+        <v>2776</v>
       </c>
       <c r="R375" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S375" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T375" t="s">
-        <v>2790</v>
+        <v>2777</v>
       </c>
       <c r="U375" t="s">
-        <v>2791</v>
+        <v>2778</v>
       </c>
       <c r="V375" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W375" t="s">
-        <v>2792</v>
+        <v>2779</v>
       </c>
       <c r="X375" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y375" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z375">
         <v>3</v>
@@ -25932,21 +25947,21 @@
         <v>1</v>
       </c>
       <c r="AD375" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="376" spans="2:34" x14ac:dyDescent="0.2">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="376" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C376" t="s">
-        <v>2793</v>
+        <v>2780</v>
       </c>
       <c r="D376" t="s">
-        <v>2794</v>
+        <v>2781</v>
       </c>
       <c r="F376" t="s">
-        <v>2795</v>
+        <v>2782</v>
       </c>
       <c r="H376" t="s">
         <v>39</v>
@@ -25967,34 +25982,34 @@
         <v>1576</v>
       </c>
       <c r="N376" t="s">
-        <v>2796</v>
+        <v>2783</v>
       </c>
       <c r="O376" t="s">
-        <v>2797</v>
+        <v>2784</v>
       </c>
       <c r="R376" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="S376" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="T376" t="s">
-        <v>2798</v>
+        <v>2785</v>
       </c>
       <c r="U376" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V376" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W376" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X376" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y376" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z376">
         <v>1</v>
@@ -26006,18 +26021,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C377" t="s">
-        <v>2799</v>
+        <v>2786</v>
       </c>
       <c r="D377" t="s">
-        <v>2800</v>
+        <v>2787</v>
       </c>
       <c r="F377" t="s">
-        <v>2801</v>
+        <v>2788</v>
       </c>
       <c r="H377" t="s">
         <v>39</v>
@@ -26038,34 +26053,34 @@
         <v>1576</v>
       </c>
       <c r="N377" t="s">
-        <v>2802</v>
+        <v>2789</v>
       </c>
       <c r="O377" t="s">
-        <v>2803</v>
+        <v>2790</v>
       </c>
       <c r="R377" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S377" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="T377" t="s">
-        <v>2804</v>
+        <v>2791</v>
       </c>
       <c r="U377" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V377" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W377" t="s">
-        <v>2805</v>
+        <v>2792</v>
       </c>
       <c r="X377" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y377" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z377">
         <v>2</v>
@@ -26077,18 +26092,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C378" t="s">
-        <v>2806</v>
+        <v>2793</v>
       </c>
       <c r="D378" t="s">
-        <v>2807</v>
+        <v>2794</v>
       </c>
       <c r="F378" t="s">
-        <v>2808</v>
+        <v>2795</v>
       </c>
       <c r="H378" t="s">
         <v>39</v>
@@ -26115,28 +26130,28 @@
         <v>8787</v>
       </c>
       <c r="R378" t="s">
-        <v>2809</v>
+        <v>2796</v>
       </c>
       <c r="S378" t="s">
-        <v>2810</v>
+        <v>2797</v>
       </c>
       <c r="T378" t="s">
-        <v>2811</v>
+        <v>2798</v>
       </c>
       <c r="U378" t="s">
-        <v>2811</v>
+        <v>2798</v>
       </c>
       <c r="V378" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W378" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X378" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y378" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z378">
         <v>2</v>
@@ -26148,18 +26163,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C379" t="s">
-        <v>2812</v>
+        <v>2799</v>
       </c>
       <c r="D379" t="s">
-        <v>2813</v>
+        <v>2800</v>
       </c>
       <c r="F379" t="s">
-        <v>2814</v>
+        <v>2801</v>
       </c>
       <c r="H379" t="s">
         <v>39</v>
@@ -26180,37 +26195,37 @@
         <v>1576</v>
       </c>
       <c r="N379" t="s">
-        <v>2815</v>
+        <v>2802</v>
       </c>
       <c r="O379" t="s">
-        <v>2816</v>
+        <v>2803</v>
       </c>
       <c r="Q379" t="s">
-        <v>2817</v>
+        <v>2804</v>
       </c>
       <c r="R379" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="S379" t="s">
-        <v>2818</v>
+        <v>2805</v>
       </c>
       <c r="T379" t="s">
-        <v>2819</v>
+        <v>2806</v>
       </c>
       <c r="U379" t="s">
-        <v>2820</v>
+        <v>2807</v>
       </c>
       <c r="V379" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W379" t="s">
-        <v>2820</v>
+        <v>2807</v>
       </c>
       <c r="X379" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y379" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z379">
         <v>3</v>
@@ -26225,21 +26240,21 @@
         <v>1</v>
       </c>
       <c r="AD379" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="380" spans="2:34" x14ac:dyDescent="0.2">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="380" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C380" t="s">
-        <v>2821</v>
+        <v>2808</v>
       </c>
       <c r="D380" t="s">
-        <v>2822</v>
+        <v>2809</v>
       </c>
       <c r="F380" t="s">
-        <v>2823</v>
+        <v>2810</v>
       </c>
       <c r="H380" t="s">
         <v>39</v>
@@ -26260,13 +26275,13 @@
         <v>1576</v>
       </c>
       <c r="N380" t="s">
-        <v>2815</v>
+        <v>2802</v>
       </c>
       <c r="O380" t="s">
-        <v>2824</v>
+        <v>2811</v>
       </c>
       <c r="Q380" t="s">
-        <v>2817</v>
+        <v>2804</v>
       </c>
       <c r="R380" t="s">
         <v>289</v>
@@ -26275,22 +26290,22 @@
         <v>289</v>
       </c>
       <c r="T380" t="s">
-        <v>2825</v>
+        <v>2812</v>
       </c>
       <c r="U380" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="V380" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W380" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X380" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y380" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Z380">
         <v>1</v>
@@ -26299,18 +26314,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>2925</v>
+      </c>
       <c r="B381" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C381" t="s">
-        <v>2826</v>
+        <v>2813</v>
       </c>
       <c r="D381" t="s">
-        <v>2827</v>
+        <v>2814</v>
       </c>
       <c r="F381" t="s">
-        <v>2828</v>
+        <v>2815</v>
       </c>
       <c r="H381" t="s">
         <v>39</v>
@@ -26328,37 +26346,37 @@
         <v>715</v>
       </c>
       <c r="M381" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="N381" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="O381" t="s">
-        <v>2829</v>
+        <v>2816</v>
       </c>
       <c r="R381" t="s">
-        <v>2830</v>
+        <v>2817</v>
       </c>
       <c r="S381" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="T381" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="U381" t="s">
-        <v>2831</v>
+        <v>2818</v>
       </c>
       <c r="V381" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="W381" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="X381" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="Y381" t="s">
-        <v>2832</v>
+        <v>2819</v>
       </c>
       <c r="Z381">
         <v>1</v>
@@ -26367,18 +26385,18 @@
         <v>1</v>
       </c>
       <c r="AD381" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="382" spans="2:34" x14ac:dyDescent="0.2">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="382" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C382" t="s">
-        <v>2834</v>
+        <v>2821</v>
       </c>
       <c r="D382" t="s">
-        <v>2835</v>
+        <v>2822</v>
       </c>
       <c r="F382" t="s">
-        <v>2836</v>
+        <v>2823</v>
       </c>
       <c r="H382" t="s">
         <v>39</v>
@@ -26390,42 +26408,42 @@
         <v>85</v>
       </c>
       <c r="K382" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="L382" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="M382" t="s">
-        <v>2837</v>
+        <v>2824</v>
       </c>
       <c r="N382" t="s">
-        <v>2838</v>
+        <v>2825</v>
       </c>
       <c r="O382" t="s">
-        <v>2839</v>
+        <v>2826</v>
       </c>
       <c r="Q382" t="s">
-        <v>2840</v>
+        <v>2827</v>
       </c>
       <c r="AE382" t="s">
-        <v>2841</v>
+        <v>2828</v>
       </c>
       <c r="AG382" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="AH382" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="383" spans="2:34" x14ac:dyDescent="0.2">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="383" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C383" t="s">
-        <v>2842</v>
+        <v>2829</v>
       </c>
       <c r="D383" t="s">
-        <v>2843</v>
+        <v>2830</v>
       </c>
       <c r="F383" t="s">
-        <v>2844</v>
+        <v>2831</v>
       </c>
       <c r="H383" t="s">
         <v>39</v>
@@ -26440,192 +26458,192 @@
         <v>1170</v>
       </c>
       <c r="L383" t="s">
-        <v>2845</v>
+        <v>2832</v>
       </c>
       <c r="M383" t="s">
-        <v>2846</v>
+        <v>2833</v>
       </c>
       <c r="N383" t="s">
-        <v>2847</v>
+        <v>2834</v>
       </c>
       <c r="O383" t="s">
-        <v>2848</v>
+        <v>2835</v>
       </c>
       <c r="Q383" t="s">
-        <v>2849</v>
+        <v>2836</v>
       </c>
       <c r="AE383" t="s">
-        <v>2850</v>
+        <v>2837</v>
       </c>
       <c r="AG383" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AH383" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="384" spans="2:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="384" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C384" t="s">
-        <v>2851</v>
+        <v>2838</v>
       </c>
       <c r="D384" t="s">
-        <v>2852</v>
+        <v>2839</v>
       </c>
       <c r="F384" t="s">
-        <v>2853</v>
+        <v>2840</v>
       </c>
       <c r="H384" t="s">
         <v>39</v>
       </c>
       <c r="I384" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J384" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
       <c r="K384" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="L384" t="s">
-        <v>2856</v>
+        <v>2843</v>
       </c>
       <c r="M384" t="s">
-        <v>2857</v>
+        <v>2844</v>
       </c>
       <c r="N384" t="s">
-        <v>2858</v>
+        <v>2845</v>
       </c>
       <c r="O384" t="s">
-        <v>2859</v>
+        <v>2846</v>
       </c>
       <c r="AE384" t="s">
-        <v>2860</v>
+        <v>2847</v>
       </c>
       <c r="AG384" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH384" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="385" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="385" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C385" t="s">
-        <v>2861</v>
+        <v>2848</v>
       </c>
       <c r="D385" t="s">
-        <v>2862</v>
+        <v>2849</v>
       </c>
       <c r="F385" t="s">
-        <v>2863</v>
+        <v>2850</v>
       </c>
       <c r="H385" t="s">
         <v>39</v>
       </c>
       <c r="I385" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J385" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
       <c r="K385" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="L385" t="s">
         <v>636</v>
       </c>
       <c r="M385" t="s">
-        <v>2864</v>
+        <v>2851</v>
       </c>
       <c r="N385" t="s">
-        <v>2865</v>
+        <v>2852</v>
       </c>
       <c r="O385" t="s">
-        <v>2866</v>
+        <v>2853</v>
       </c>
       <c r="P385" t="s">
-        <v>2867</v>
+        <v>2854</v>
       </c>
       <c r="Q385" t="s">
-        <v>2868</v>
+        <v>2855</v>
       </c>
       <c r="AE385" t="s">
-        <v>2869</v>
+        <v>2856</v>
       </c>
       <c r="AG385" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH385" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="386" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="386" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C386" t="s">
-        <v>2870</v>
+        <v>2857</v>
       </c>
       <c r="D386" t="s">
-        <v>2871</v>
+        <v>2858</v>
       </c>
       <c r="F386" t="s">
-        <v>2872</v>
+        <v>2859</v>
       </c>
       <c r="H386" t="s">
         <v>39</v>
       </c>
       <c r="I386" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J386" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="K386" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="L386" t="s">
-        <v>2873</v>
+        <v>2860</v>
       </c>
       <c r="M386" t="s">
-        <v>2874</v>
+        <v>2861</v>
       </c>
       <c r="N386" t="s">
-        <v>2875</v>
+        <v>2862</v>
       </c>
       <c r="O386" t="s">
-        <v>2876</v>
+        <v>2863</v>
       </c>
       <c r="AE386" t="s">
-        <v>2877</v>
+        <v>2864</v>
       </c>
       <c r="AG386" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH386" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="387" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="387" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C387" t="s">
         <v>641</v>
       </c>
       <c r="D387" t="s">
-        <v>2878</v>
+        <v>2865</v>
       </c>
       <c r="F387" t="s">
-        <v>2879</v>
+        <v>2866</v>
       </c>
       <c r="H387" t="s">
         <v>39</v>
       </c>
       <c r="I387" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="J387" t="s">
-        <v>2880</v>
+        <v>2867</v>
       </c>
       <c r="K387" t="s">
-        <v>2881</v>
+        <v>2868</v>
       </c>
       <c r="L387" t="s">
-        <v>2882</v>
+        <v>2869</v>
       </c>
       <c r="M387" t="s">
         <v>644</v>
@@ -26637,162 +26655,168 @@
         <v>646</v>
       </c>
       <c r="AE387" t="s">
-        <v>2883</v>
+        <v>2870</v>
       </c>
       <c r="AG387" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH387" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="388" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="388" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>2925</v>
+      </c>
       <c r="C388" t="s">
-        <v>2884</v>
+        <v>2871</v>
       </c>
       <c r="D388" t="s">
-        <v>2885</v>
+        <v>2872</v>
       </c>
       <c r="F388" t="s">
-        <v>2886</v>
+        <v>2873</v>
       </c>
       <c r="H388" t="s">
         <v>39</v>
       </c>
       <c r="I388" t="s">
-        <v>2887</v>
+        <v>2874</v>
       </c>
       <c r="J388" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="K388" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="L388" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="M388" t="s">
-        <v>2888</v>
+        <v>2875</v>
       </c>
       <c r="N388" t="s">
-        <v>2889</v>
+        <v>2876</v>
       </c>
       <c r="O388" t="s">
-        <v>2890</v>
+        <v>2877</v>
       </c>
       <c r="Q388" t="s">
-        <v>2891</v>
+        <v>2878</v>
       </c>
       <c r="AE388" t="s">
-        <v>2892</v>
+        <v>2879</v>
       </c>
       <c r="AG388" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH388" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="389" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="389" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C389" t="s">
-        <v>2893</v>
+        <v>2880</v>
       </c>
       <c r="D389" t="s">
-        <v>2894</v>
+        <v>2881</v>
       </c>
       <c r="F389" t="s">
-        <v>2895</v>
+        <v>2882</v>
       </c>
       <c r="H389" t="s">
         <v>39</v>
       </c>
       <c r="I389" t="s">
-        <v>2896</v>
+        <v>2883</v>
       </c>
       <c r="J389" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="K389" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="L389" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="M389" t="s">
-        <v>2897</v>
+        <v>2884</v>
       </c>
       <c r="N389" t="s">
-        <v>2898</v>
+        <v>2885</v>
       </c>
       <c r="O389" t="s">
-        <v>2899</v>
+        <v>2886</v>
       </c>
       <c r="Q389" t="s">
-        <v>2900</v>
+        <v>2887</v>
       </c>
       <c r="AE389" t="s">
-        <v>2901</v>
+        <v>2888</v>
       </c>
       <c r="AG389" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="AH389" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="390" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="390" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C390" t="s">
-        <v>2902</v>
+        <v>2889</v>
       </c>
       <c r="D390" t="s">
-        <v>2903</v>
+        <v>2890</v>
       </c>
       <c r="F390" t="s">
-        <v>2904</v>
+        <v>2891</v>
       </c>
       <c r="H390" t="s">
         <v>39</v>
       </c>
       <c r="I390" t="s">
+        <v>2883</v>
+      </c>
+      <c r="J390" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K390" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L390" t="s">
+        <v>2058</v>
+      </c>
+      <c r="M390" t="s">
+        <v>2892</v>
+      </c>
+      <c r="N390" t="s">
+        <v>2893</v>
+      </c>
+      <c r="O390" t="s">
+        <v>2894</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>2895</v>
+      </c>
+      <c r="AE390" t="s">
         <v>2896</v>
       </c>
-      <c r="J390" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K390" t="s">
-        <v>2063</v>
-      </c>
-      <c r="L390" t="s">
-        <v>2064</v>
-      </c>
-      <c r="M390" t="s">
-        <v>2905</v>
-      </c>
-      <c r="N390" t="s">
-        <v>2906</v>
-      </c>
-      <c r="O390" t="s">
-        <v>2907</v>
-      </c>
-      <c r="Q390" t="s">
-        <v>2908</v>
-      </c>
-      <c r="AE390" t="s">
-        <v>2909</v>
-      </c>
       <c r="AH390" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="391" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="391" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2925</v>
+      </c>
       <c r="C391" t="s">
-        <v>2910</v>
+        <v>2897</v>
       </c>
       <c r="D391" t="s">
-        <v>2911</v>
+        <v>2898</v>
       </c>
       <c r="F391" t="s">
-        <v>2912</v>
+        <v>2899</v>
       </c>
       <c r="H391" t="s">
         <v>39</v>
@@ -26810,30 +26834,30 @@
         <v>715</v>
       </c>
       <c r="M391" t="s">
-        <v>2913</v>
+        <v>2900</v>
       </c>
       <c r="N391" t="s">
-        <v>2914</v>
+        <v>2901</v>
       </c>
       <c r="O391" t="s">
-        <v>2915</v>
+        <v>2902</v>
       </c>
       <c r="AE391" t="s">
-        <v>2916</v>
+        <v>2903</v>
       </c>
       <c r="AH391" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="392" spans="3:34" x14ac:dyDescent="0.2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="392" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C392" t="s">
-        <v>2917</v>
+        <v>2904</v>
       </c>
       <c r="D392" t="s">
-        <v>2918</v>
+        <v>2905</v>
       </c>
       <c r="F392" t="s">
-        <v>2919</v>
+        <v>2906</v>
       </c>
       <c r="H392" t="s">
         <v>39</v>
@@ -26851,25 +26875,25 @@
         <v>715</v>
       </c>
       <c r="M392" t="s">
-        <v>2920</v>
+        <v>2907</v>
       </c>
       <c r="N392" t="s">
-        <v>2921</v>
+        <v>2908</v>
       </c>
       <c r="O392" t="s">
-        <v>2922</v>
+        <v>2909</v>
       </c>
       <c r="Q392" t="s">
-        <v>2923</v>
+        <v>2910</v>
       </c>
       <c r="AE392" t="s">
-        <v>2924</v>
+        <v>2911</v>
       </c>
       <c r="AG392" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="AH392" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
   </sheetData>

--- a/flag/AQB_classification/species_list_10071623_NJMg.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/Downloads/iqtree_genomes_wLitLinks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55D13A-5FB2-0547-8E91-4EFA4E52A7E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2587C-3426-3341-A784-727BCA17EC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="600" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="2926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="2932">
   <si>
     <t>Download script?</t>
   </si>
@@ -8791,13 +8791,32 @@
     <t>Escherichia coli 042 1_2</t>
   </si>
   <si>
-    <t>PRJEB3868_Verrucomicrobium_sp</t>
-  </si>
-  <si>
-    <t>PRJEB38681_Verrucomicrobium_sp</t>
-  </si>
-  <si>
     <t>downloaded 2023-07-26</t>
+  </si>
+  <si>
+    <t>ASM2712v1</t>
+  </si>
+  <si>
+    <t>GCA_000027125.1</t>
+  </si>
+  <si>
+    <t>GCF_000027125.1</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>formerly PRJEB3868_Verrucomicrobium_sp</t>
+  </si>
+  <si>
+    <t>formerly 
+PRJEB38681_Verrucomicrobium_sp</t>
+  </si>
+  <si>
+    <t>VER_PRJEB3868.0_CAIZXV01</t>
+  </si>
+  <si>
+    <t>VER_PRJEB38681.0_CAISZB01</t>
   </si>
 </sst>
 </file>
@@ -9281,10 +9300,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9640,13 +9663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH392"/>
+  <dimension ref="A1:AH393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P356" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="AB198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O391" sqref="O391"/>
+      <selection pane="bottomRight" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18128,9 +18151,12 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="227" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="4" t="s">
+        <v>2928</v>
+      </c>
       <c r="C227" t="s">
-        <v>2923</v>
+        <v>2930</v>
       </c>
       <c r="D227" t="s">
         <v>1660</v>
@@ -18169,9 +18195,12 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="228" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="4" t="s">
+        <v>2929</v>
+      </c>
       <c r="C228" t="s">
-        <v>2924</v>
+        <v>2931</v>
       </c>
       <c r="D228" t="s">
         <v>1661</v>
@@ -26316,7 +26345,7 @@
     </row>
     <row r="381" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B381" t="s">
         <v>2532</v>
@@ -26666,7 +26695,7 @@
     </row>
     <row r="388" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="C388" t="s">
         <v>2871</v>
@@ -26807,7 +26836,7 @@
     </row>
     <row r="391" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="C391" t="s">
         <v>2897</v>
@@ -26896,7 +26925,54 @@
         <v>1837</v>
       </c>
     </row>
+    <row r="393" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C393" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D393" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F393" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H393" t="s">
+        <v>39</v>
+      </c>
+      <c r="I393" t="s">
+        <v>51</v>
+      </c>
+      <c r="J393" t="s">
+        <v>52</v>
+      </c>
+      <c r="K393" t="s">
+        <v>238</v>
+      </c>
+      <c r="L393" t="s">
+        <v>715</v>
+      </c>
+      <c r="M393" t="s">
+        <v>716</v>
+      </c>
+      <c r="N393" t="s">
+        <v>717</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>2281</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>1837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="O393" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/flag/AQB_classification/species_list_10071623_NJMg.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/Downloads/iqtree_genomes_wLitLinks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0BA15-D04F-4E4F-9E3C-4CC5BA1BE8F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D22A9D-6E9C-5047-8925-6D65D7D4D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="5320" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9789,7 +9789,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9803,10 +9803,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10166,15 +10163,14 @@
   <dimension ref="A1:AY439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="Z378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B417" sqref="B417"/>
+      <selection pane="bottomRight" activeCell="K391" sqref="K391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="17" width="10.83203125" style="12"/>
     <col min="31" max="31" width="40.6640625" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
   </cols>
@@ -10222,10 +10218,10 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -10358,7 +10354,7 @@
       <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10548,10 +10544,10 @@
       <c r="O8" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10595,7 +10591,7 @@
       <c r="O9" t="s">
         <v>116</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10674,7 +10670,7 @@
       <c r="O11">
         <v>168</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10750,7 +10746,7 @@
       <c r="O13" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10890,7 +10886,7 @@
       <c r="O17" t="s">
         <v>191</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10934,7 +10930,7 @@
       <c r="O18" t="s">
         <v>203</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10972,7 +10968,7 @@
       <c r="O19" t="s">
         <v>212</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11320,7 +11316,7 @@
       <c r="O28" t="s">
         <v>273</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" t="s">
         <v>204</v>
       </c>
     </row>
@@ -11358,7 +11354,7 @@
       <c r="O29" t="s">
         <v>281</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12290,7 +12286,7 @@
       <c r="O57" t="s">
         <v>425</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12331,7 +12327,7 @@
       <c r="O58" t="s">
         <v>434</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="Q58" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12527,7 +12523,7 @@
       <c r="O63" t="s">
         <v>468</v>
       </c>
-      <c r="Q63" s="12" t="s">
+      <c r="Q63" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12559,7 +12555,7 @@
       <c r="O64" t="s">
         <v>473</v>
       </c>
-      <c r="Q64" s="12" t="s">
+      <c r="Q64" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12591,7 +12587,7 @@
       <c r="O65" t="s">
         <v>477</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="Q65" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12679,7 +12675,7 @@
       <c r="O67" t="s">
         <v>496</v>
       </c>
-      <c r="P67" s="12" t="s">
+      <c r="P67" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12723,7 +12719,7 @@
       <c r="O68" t="s">
         <v>504</v>
       </c>
-      <c r="P68" s="12" t="s">
+      <c r="P68" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12767,7 +12763,7 @@
       <c r="O69" t="s">
         <v>510</v>
       </c>
-      <c r="P69" s="12" t="s">
+      <c r="P69" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12811,7 +12807,7 @@
       <c r="O70" t="s">
         <v>520</v>
       </c>
-      <c r="Q70" s="12" t="s">
+      <c r="Q70" t="s">
         <v>521</v>
       </c>
     </row>
@@ -12855,7 +12851,7 @@
       <c r="O71" t="s">
         <v>528</v>
       </c>
-      <c r="P71" s="12" t="s">
+      <c r="P71" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12899,10 +12895,10 @@
       <c r="O72" t="s">
         <v>539</v>
       </c>
-      <c r="P72" s="12" t="s">
+      <c r="P72" t="s">
         <v>540</v>
       </c>
-      <c r="Q72" s="12" t="s">
+      <c r="Q72" t="s">
         <v>541</v>
       </c>
     </row>
@@ -12940,7 +12936,7 @@
       <c r="O73" t="s">
         <v>550</v>
       </c>
-      <c r="Q73" s="12" t="s">
+      <c r="Q73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13227,10 +13223,10 @@
       <c r="O80" t="s">
         <v>610</v>
       </c>
-      <c r="P80" s="12" t="s">
+      <c r="P80" t="s">
         <v>611</v>
       </c>
-      <c r="Q80" s="12" t="s">
+      <c r="Q80" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13309,7 +13305,7 @@
       <c r="O82" t="s">
         <v>630</v>
       </c>
-      <c r="Q82" s="12" t="s">
+      <c r="Q82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13347,7 +13343,7 @@
       <c r="O83" t="s">
         <v>639</v>
       </c>
-      <c r="Q83" s="12" t="s">
+      <c r="Q83" t="s">
         <v>640</v>
       </c>
     </row>
@@ -13385,7 +13381,7 @@
       <c r="O84" t="s">
         <v>646</v>
       </c>
-      <c r="Q84" s="12" t="s">
+      <c r="Q84" t="s">
         <v>647</v>
       </c>
     </row>
@@ -13589,7 +13585,7 @@
       <c r="O90" t="s">
         <v>700</v>
       </c>
-      <c r="Q90" s="12" t="s">
+      <c r="Q90" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13674,7 +13670,7 @@
       <c r="O92" t="s">
         <v>718</v>
       </c>
-      <c r="P92" s="12" t="s">
+      <c r="P92" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13808,10 +13804,10 @@
       <c r="O96" t="s">
         <v>744</v>
       </c>
-      <c r="P96" s="12" t="s">
+      <c r="P96" t="s">
         <v>745</v>
       </c>
-      <c r="Q96" s="12" t="s">
+      <c r="Q96" t="s">
         <v>746</v>
       </c>
     </row>
@@ -14062,7 +14058,7 @@
       <c r="O103" t="s">
         <v>800</v>
       </c>
-      <c r="Q103" s="12" t="s">
+      <c r="Q103" t="s">
         <v>801</v>
       </c>
     </row>
@@ -14147,7 +14143,7 @@
       <c r="O105" t="s">
         <v>819</v>
       </c>
-      <c r="P105" s="12" t="s">
+      <c r="P105" t="s">
         <v>820</v>
       </c>
     </row>
@@ -14191,7 +14187,7 @@
       <c r="O106" t="s">
         <v>827</v>
       </c>
-      <c r="P106" s="12" t="s">
+      <c r="P106" t="s">
         <v>828</v>
       </c>
     </row>
@@ -14459,7 +14455,7 @@
       <c r="O114" t="s">
         <v>884</v>
       </c>
-      <c r="P114" s="12" t="s">
+      <c r="P114" t="s">
         <v>820</v>
       </c>
     </row>
@@ -14602,7 +14598,7 @@
       <c r="O118" t="s">
         <v>909</v>
       </c>
-      <c r="Q118" s="12" t="s">
+      <c r="Q118" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14640,7 +14636,7 @@
       <c r="O119" t="s">
         <v>917</v>
       </c>
-      <c r="Q119" s="12" t="s">
+      <c r="Q119" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14929,7 +14925,7 @@
       <c r="O127" t="s">
         <v>983</v>
       </c>
-      <c r="P127" s="12" t="s">
+      <c r="P127" t="s">
         <v>820</v>
       </c>
     </row>
@@ -14967,7 +14963,7 @@
       <c r="O128">
         <v>14</v>
       </c>
-      <c r="Q128" s="12" t="s">
+      <c r="Q128" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15005,7 +15001,7 @@
       <c r="O129" t="s">
         <v>998</v>
       </c>
-      <c r="Q129" s="12" t="s">
+      <c r="Q129" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15049,10 +15045,10 @@
       <c r="O130" t="s">
         <v>1006</v>
       </c>
-      <c r="P130" s="12" t="s">
+      <c r="P130" t="s">
         <v>1007</v>
       </c>
-      <c r="Q130" s="12" t="s">
+      <c r="Q130" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -15502,7 +15498,7 @@
       <c r="O142" t="s">
         <v>1093</v>
       </c>
-      <c r="P142" s="12" t="s">
+      <c r="P142" t="s">
         <v>820</v>
       </c>
     </row>
@@ -15675,7 +15671,7 @@
       <c r="O146" t="s">
         <v>1117</v>
       </c>
-      <c r="P146" s="12" t="s">
+      <c r="P146" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15719,10 +15715,10 @@
       <c r="O147" t="s">
         <v>1124</v>
       </c>
-      <c r="P147" s="12" t="s">
+      <c r="P147" t="s">
         <v>1125</v>
       </c>
-      <c r="Q147" s="12" t="s">
+      <c r="Q147" t="s">
         <v>204</v>
       </c>
     </row>
@@ -15839,7 +15835,7 @@
       <c r="O150" t="s">
         <v>1149</v>
       </c>
-      <c r="P150" s="12" t="s">
+      <c r="P150" t="s">
         <v>820</v>
       </c>
     </row>
@@ -15915,7 +15911,7 @@
       <c r="O152" t="s">
         <v>1165</v>
       </c>
-      <c r="P152" s="12" t="s">
+      <c r="P152" t="s">
         <v>58</v>
       </c>
     </row>
@@ -16055,7 +16051,7 @@
       <c r="O156" t="s">
         <v>1190</v>
       </c>
-      <c r="Q156" s="12" t="s">
+      <c r="Q156" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -16723,7 +16719,7 @@
       <c r="O175" t="s">
         <v>1312</v>
       </c>
-      <c r="Q175" s="12" t="s">
+      <c r="Q175" t="s">
         <v>139</v>
       </c>
     </row>
@@ -16799,7 +16795,7 @@
       <c r="O177" t="s">
         <v>1327</v>
       </c>
-      <c r="Q177" s="12" t="s">
+      <c r="Q177" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17080,7 +17076,7 @@
       <c r="O184" t="s">
         <v>1381</v>
       </c>
-      <c r="Q184" s="12" t="s">
+      <c r="Q184" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17124,10 +17120,10 @@
       <c r="O185" t="s">
         <v>1390</v>
       </c>
-      <c r="P185" s="12" t="s">
+      <c r="P185" t="s">
         <v>1391</v>
       </c>
-      <c r="Q185" s="12" t="s">
+      <c r="Q185" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -17238,10 +17234,10 @@
       <c r="O188" t="s">
         <v>1411</v>
       </c>
-      <c r="P188" s="12" t="s">
+      <c r="P188" t="s">
         <v>1412</v>
       </c>
-      <c r="Q188" s="12" t="s">
+      <c r="Q188" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -17355,7 +17351,7 @@
       <c r="O191" t="s">
         <v>1434</v>
       </c>
-      <c r="Q191" s="12" t="s">
+      <c r="Q191" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17720,7 +17716,7 @@
       <c r="O201" t="s">
         <v>1513</v>
       </c>
-      <c r="Q201" s="12" t="s">
+      <c r="Q201" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -17758,7 +17754,7 @@
       <c r="O202" t="s">
         <v>1518</v>
       </c>
-      <c r="Q202" s="12" t="s">
+      <c r="Q202" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -17837,7 +17833,7 @@
       <c r="O204" t="s">
         <v>1535</v>
       </c>
-      <c r="P204" s="12" t="s">
+      <c r="P204" t="s">
         <v>58</v>
       </c>
     </row>
@@ -17881,7 +17877,7 @@
       <c r="O205" t="s">
         <v>1537</v>
       </c>
-      <c r="P205" s="12" t="s">
+      <c r="P205" t="s">
         <v>58</v>
       </c>
     </row>
@@ -17925,7 +17921,7 @@
       <c r="O206" t="s">
         <v>1543</v>
       </c>
-      <c r="P206" s="12" t="s">
+      <c r="P206" t="s">
         <v>58</v>
       </c>
     </row>
@@ -17969,7 +17965,7 @@
       <c r="O207" t="s">
         <v>1545</v>
       </c>
-      <c r="P207" s="12" t="s">
+      <c r="P207" t="s">
         <v>58</v>
       </c>
     </row>
@@ -18013,7 +18009,7 @@
       <c r="O208" t="s">
         <v>1547</v>
       </c>
-      <c r="P208" s="12" t="s">
+      <c r="P208" t="s">
         <v>58</v>
       </c>
     </row>
@@ -18086,7 +18082,7 @@
       <c r="O210" t="s">
         <v>1561</v>
       </c>
-      <c r="Q210" s="12" t="s">
+      <c r="Q210" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18381,7 +18377,7 @@
       <c r="O218" t="s">
         <v>1603</v>
       </c>
-      <c r="Q218" s="12" t="s">
+      <c r="Q218" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -18413,7 +18409,7 @@
       <c r="O219" t="s">
         <v>1612</v>
       </c>
-      <c r="Q219" s="12" t="s">
+      <c r="Q219" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -18699,7 +18695,7 @@
       <c r="O227" t="s">
         <v>1513</v>
       </c>
-      <c r="Q227" s="12" t="s">
+      <c r="Q227" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -18743,7 +18739,7 @@
       <c r="O228" t="s">
         <v>1518</v>
       </c>
-      <c r="Q228" s="12" t="s">
+      <c r="Q228" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -18784,10 +18780,10 @@
       <c r="O229" t="s">
         <v>1670</v>
       </c>
-      <c r="P229" s="12" t="s">
+      <c r="P229" t="s">
         <v>1671</v>
       </c>
-      <c r="Q229" s="12" t="s">
+      <c r="Q229" t="s">
         <v>1672</v>
       </c>
       <c r="R229" t="s">
@@ -19025,7 +19021,7 @@
       <c r="N234" t="s">
         <v>1715</v>
       </c>
-      <c r="Q234" s="12" t="s">
+      <c r="Q234" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -19063,10 +19059,10 @@
       <c r="N235" t="s">
         <v>1721</v>
       </c>
-      <c r="P235" s="12" t="s">
+      <c r="P235" t="s">
         <v>1722</v>
       </c>
-      <c r="Q235" s="12" t="s">
+      <c r="Q235" t="s">
         <v>1723</v>
       </c>
       <c r="AE235" t="s">
@@ -19404,7 +19400,7 @@
       <c r="O242" t="s">
         <v>1779</v>
       </c>
-      <c r="Q242" s="12" t="s">
+      <c r="Q242" t="s">
         <v>1780</v>
       </c>
       <c r="AE242" t="s">
@@ -19457,7 +19453,7 @@
       <c r="O243" t="s">
         <v>1789</v>
       </c>
-      <c r="Q243" s="12" t="s">
+      <c r="Q243" t="s">
         <v>1790</v>
       </c>
       <c r="AE243" t="s">
@@ -19510,7 +19506,7 @@
       <c r="O244" t="s">
         <v>1797</v>
       </c>
-      <c r="Q244" s="12" t="s">
+      <c r="Q244" t="s">
         <v>1798</v>
       </c>
       <c r="AE244" t="s">
@@ -19560,7 +19556,7 @@
       <c r="O245" t="s">
         <v>1805</v>
       </c>
-      <c r="Q245" s="12" t="s">
+      <c r="Q245" t="s">
         <v>1806</v>
       </c>
       <c r="AE245" t="s">
@@ -19977,7 +19973,7 @@
       <c r="O254" t="s">
         <v>1871</v>
       </c>
-      <c r="P254" s="12" t="s">
+      <c r="P254" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -20018,7 +20014,7 @@
       <c r="O255" t="s">
         <v>1878</v>
       </c>
-      <c r="P255" s="12" t="s">
+      <c r="P255" t="s">
         <v>1879</v>
       </c>
       <c r="AE255" t="s">
@@ -20068,7 +20064,7 @@
       <c r="O256" t="s">
         <v>1888</v>
       </c>
-      <c r="P256" s="12" t="s">
+      <c r="P256" t="s">
         <v>1879</v>
       </c>
       <c r="AE256" t="s">
@@ -20435,10 +20431,10 @@
       <c r="N264" t="s">
         <v>717</v>
       </c>
-      <c r="P264" s="12" t="s">
+      <c r="P264" t="s">
         <v>58</v>
       </c>
-      <c r="Q264" s="12" t="s">
+      <c r="Q264" t="s">
         <v>1941</v>
       </c>
       <c r="AE264" t="s">
@@ -20532,7 +20528,7 @@
       <c r="O266" t="s">
         <v>1958</v>
       </c>
-      <c r="Q266" s="12" t="s">
+      <c r="Q266" t="s">
         <v>1959</v>
       </c>
       <c r="AE266" t="s">
@@ -20582,7 +20578,7 @@
       <c r="O267" t="s">
         <v>1967</v>
       </c>
-      <c r="Q267" s="12" t="s">
+      <c r="Q267" t="s">
         <v>1968</v>
       </c>
       <c r="AE267" t="s">
@@ -20679,7 +20675,7 @@
       <c r="O269">
         <v>170</v>
       </c>
-      <c r="Q269" s="12" t="s">
+      <c r="Q269" t="s">
         <v>1980</v>
       </c>
       <c r="AE269" t="s">
@@ -21563,7 +21559,7 @@
       <c r="O288" t="s">
         <v>2134</v>
       </c>
-      <c r="Q288" s="12" t="s">
+      <c r="Q288" t="s">
         <v>2135</v>
       </c>
       <c r="AE288" t="s">
@@ -21754,7 +21750,7 @@
       <c r="O292" t="s">
         <v>2143</v>
       </c>
-      <c r="Q292" s="12" t="s">
+      <c r="Q292" t="s">
         <v>2166</v>
       </c>
       <c r="R292" t="s">
@@ -21881,7 +21877,7 @@
       <c r="O294" t="s">
         <v>2188</v>
       </c>
-      <c r="Q294" s="12" t="s">
+      <c r="Q294" t="s">
         <v>2189</v>
       </c>
       <c r="AE294" t="s">
@@ -22260,7 +22256,7 @@
       <c r="O302" t="s">
         <v>2252</v>
       </c>
-      <c r="Q302" s="12" t="s">
+      <c r="Q302" t="s">
         <v>2253</v>
       </c>
       <c r="AE302" t="s">
@@ -23082,7 +23078,7 @@
       <c r="O320" t="s">
         <v>2363</v>
       </c>
-      <c r="Q320" s="12" t="s">
+      <c r="Q320" t="s">
         <v>2364</v>
       </c>
     </row>
@@ -23720,7 +23716,7 @@
       <c r="O333" t="s">
         <v>2456</v>
       </c>
-      <c r="Q333" s="12" t="s">
+      <c r="Q333" t="s">
         <v>2457</v>
       </c>
     </row>
@@ -23911,7 +23907,7 @@
       <c r="O337" t="s">
         <v>1741</v>
       </c>
-      <c r="Q337" s="12" t="s">
+      <c r="Q337" t="s">
         <v>2476</v>
       </c>
       <c r="AE337" t="s">
@@ -24630,7 +24626,7 @@
       <c r="O350" t="s">
         <v>2572</v>
       </c>
-      <c r="Q350" s="12" t="s">
+      <c r="Q350" t="s">
         <v>2573</v>
       </c>
       <c r="R350" t="s">
@@ -24852,7 +24848,7 @@
       <c r="O353" t="s">
         <v>2598</v>
       </c>
-      <c r="Q353" s="12" t="s">
+      <c r="Q353" t="s">
         <v>2599</v>
       </c>
       <c r="R353" t="s">
@@ -24932,7 +24928,7 @@
       <c r="O354" t="s">
         <v>2605</v>
       </c>
-      <c r="Q354" s="12" t="s">
+      <c r="Q354" t="s">
         <v>2606</v>
       </c>
       <c r="R354" t="s">
@@ -25006,7 +25002,7 @@
       <c r="O355" t="s">
         <v>2614</v>
       </c>
-      <c r="Q355" s="12" t="s">
+      <c r="Q355" t="s">
         <v>2615</v>
       </c>
       <c r="R355" t="s">
@@ -25512,7 +25508,7 @@
       <c r="O362" t="s">
         <v>2674</v>
       </c>
-      <c r="Q362" s="12" t="s">
+      <c r="Q362" t="s">
         <v>2675</v>
       </c>
       <c r="R362" t="s">
@@ -25867,7 +25863,7 @@
       <c r="N367" t="s">
         <v>2709</v>
       </c>
-      <c r="Q367" s="12" t="s">
+      <c r="Q367" t="s">
         <v>2710</v>
       </c>
       <c r="R367" t="s">
@@ -25941,7 +25937,7 @@
       <c r="O368" t="s">
         <v>2719</v>
       </c>
-      <c r="Q368" s="12" t="s">
+      <c r="Q368" t="s">
         <v>2720</v>
       </c>
       <c r="R368" t="s">
@@ -26737,7 +26733,7 @@
       <c r="O379" t="s">
         <v>2800</v>
       </c>
-      <c r="Q379" s="12" t="s">
+      <c r="Q379" t="s">
         <v>2801</v>
       </c>
       <c r="R379" t="s">
@@ -26817,7 +26813,7 @@
       <c r="O380" t="s">
         <v>2808</v>
       </c>
-      <c r="Q380" s="12" t="s">
+      <c r="Q380" t="s">
         <v>2801</v>
       </c>
       <c r="R380" t="s">
@@ -26959,7 +26955,7 @@
       <c r="O382" t="s">
         <v>2823</v>
       </c>
-      <c r="Q382" s="12" t="s">
+      <c r="Q382" t="s">
         <v>2824</v>
       </c>
       <c r="AE382" t="s">
@@ -27006,7 +27002,7 @@
       <c r="O383" t="s">
         <v>2832</v>
       </c>
-      <c r="Q383" s="12" t="s">
+      <c r="Q383" t="s">
         <v>2833</v>
       </c>
       <c r="AE383" t="s">
@@ -27097,10 +27093,10 @@
       <c r="O385" t="s">
         <v>2850</v>
       </c>
-      <c r="P385" s="12" t="s">
+      <c r="P385" t="s">
         <v>2851</v>
       </c>
-      <c r="Q385" s="12" t="s">
+      <c r="Q385" t="s">
         <v>2852</v>
       </c>
       <c r="AE385" t="s">
@@ -27238,7 +27234,7 @@
       <c r="O388" t="s">
         <v>2874</v>
       </c>
-      <c r="Q388" s="12" t="s">
+      <c r="Q388" t="s">
         <v>2875</v>
       </c>
       <c r="AE388" t="s">
@@ -27285,7 +27281,7 @@
       <c r="O389" t="s">
         <v>2883</v>
       </c>
-      <c r="Q389" s="12" t="s">
+      <c r="Q389" t="s">
         <v>2884</v>
       </c>
       <c r="AE389" t="s">
@@ -27332,7 +27328,7 @@
       <c r="O390" t="s">
         <v>2891</v>
       </c>
-      <c r="Q390" s="12" t="s">
+      <c r="Q390" t="s">
         <v>2892</v>
       </c>
       <c r="AE390" t="s">
@@ -27420,7 +27416,7 @@
       <c r="O392" t="s">
         <v>2906</v>
       </c>
-      <c r="Q392" s="12" t="s">
+      <c r="Q392" t="s">
         <v>2907</v>
       </c>
       <c r="AE392" t="s">
@@ -27471,8 +27467,8 @@
       <c r="O393" s="7" t="s">
         <v>2924</v>
       </c>
-      <c r="P393" s="13"/>
-      <c r="Q393" s="13"/>
+      <c r="P393" s="6"/>
+      <c r="Q393" s="6"/>
       <c r="R393" s="6"/>
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
@@ -27554,8 +27550,8 @@
       <c r="O394" s="6" t="s">
         <v>2400</v>
       </c>
-      <c r="P394" s="13"/>
-      <c r="Q394" s="13"/>
+      <c r="P394" s="6"/>
+      <c r="Q394" s="6"/>
       <c r="R394" s="6"/>
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
@@ -27629,8 +27625,8 @@
       <c r="O395" s="6" t="s">
         <v>2932</v>
       </c>
-      <c r="P395" s="13"/>
-      <c r="Q395" s="13"/>
+      <c r="P395" s="6"/>
+      <c r="Q395" s="6"/>
       <c r="R395" s="6"/>
       <c r="S395" s="6"/>
       <c r="T395" s="6"/>
@@ -27704,8 +27700,8 @@
       <c r="O396" s="6" t="s">
         <v>2937</v>
       </c>
-      <c r="P396" s="13"/>
-      <c r="Q396" s="13" t="s">
+      <c r="P396" s="6"/>
+      <c r="Q396" s="6" t="s">
         <v>2967</v>
       </c>
       <c r="R396" s="6"/>
@@ -27781,8 +27777,8 @@
       <c r="O397" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="P397" s="13"/>
-      <c r="Q397" s="13"/>
+      <c r="P397" s="6"/>
+      <c r="Q397" s="6"/>
       <c r="R397" s="6"/>
       <c r="S397" s="6"/>
       <c r="T397" s="6"/>
@@ -27856,8 +27852,8 @@
       <c r="O398" s="6" t="s">
         <v>2947</v>
       </c>
-      <c r="P398" s="13"/>
-      <c r="Q398" s="13" t="s">
+      <c r="P398" s="6"/>
+      <c r="Q398" s="6" t="s">
         <v>2948</v>
       </c>
       <c r="R398" s="6"/>
@@ -27933,8 +27929,8 @@
       <c r="O399" s="6" t="s">
         <v>2957</v>
       </c>
-      <c r="P399" s="13"/>
-      <c r="Q399" s="13" t="s">
+      <c r="P399" s="6"/>
+      <c r="Q399" s="6" t="s">
         <v>2955</v>
       </c>
       <c r="R399" s="6"/>
@@ -28010,8 +28006,8 @@
       <c r="O400" s="6" t="s">
         <v>2962</v>
       </c>
-      <c r="P400" s="13"/>
-      <c r="Q400" s="13" t="s">
+      <c r="P400" s="6"/>
+      <c r="Q400" s="6" t="s">
         <v>2963</v>
       </c>
       <c r="R400" s="6"/>
@@ -28087,8 +28083,8 @@
       <c r="O401" s="6" t="s">
         <v>2972</v>
       </c>
-      <c r="P401" s="13"/>
-      <c r="Q401" s="13"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="6"/>
       <c r="R401" s="6"/>
       <c r="S401" s="6"/>
       <c r="T401" s="6"/>
@@ -28162,8 +28158,8 @@
       <c r="O402" s="6" t="s">
         <v>2974</v>
       </c>
-      <c r="P402" s="13"/>
-      <c r="Q402" s="13"/>
+      <c r="P402" s="6"/>
+      <c r="Q402" s="6"/>
       <c r="R402" s="6"/>
       <c r="S402" s="6"/>
       <c r="T402" s="6"/>
@@ -28237,8 +28233,8 @@
       <c r="O403" s="6" t="s">
         <v>2980</v>
       </c>
-      <c r="P403" s="13"/>
-      <c r="Q403" s="13"/>
+      <c r="P403" s="6"/>
+      <c r="Q403" s="6"/>
       <c r="R403" s="6"/>
       <c r="S403" s="6"/>
       <c r="T403" s="6"/>
@@ -28316,8 +28312,8 @@
       <c r="O404" s="6" t="s">
         <v>2988</v>
       </c>
-      <c r="P404" s="13"/>
-      <c r="Q404" s="13"/>
+      <c r="P404" s="6"/>
+      <c r="Q404" s="6"/>
       <c r="R404" s="6"/>
       <c r="S404" s="6"/>
       <c r="T404" s="6"/>
@@ -28391,8 +28387,8 @@
       <c r="O405" s="6" t="s">
         <v>2998</v>
       </c>
-      <c r="P405" s="13"/>
-      <c r="Q405" s="13" t="s">
+      <c r="P405" s="6"/>
+      <c r="Q405" s="6" t="s">
         <v>2999</v>
       </c>
       <c r="R405" s="6"/>
@@ -28466,8 +28462,8 @@
       <c r="O406" s="6" t="s">
         <v>3012</v>
       </c>
-      <c r="P406" s="13"/>
-      <c r="Q406" s="13" t="s">
+      <c r="P406" s="6"/>
+      <c r="Q406" s="6" t="s">
         <v>3005</v>
       </c>
       <c r="R406" s="6"/>
@@ -28543,8 +28539,8 @@
       <c r="O407" s="6" t="s">
         <v>3015</v>
       </c>
-      <c r="P407" s="13"/>
-      <c r="Q407" s="13" t="s">
+      <c r="P407" s="6"/>
+      <c r="Q407" s="6" t="s">
         <v>3021</v>
       </c>
       <c r="R407" s="6"/>
@@ -28620,10 +28616,10 @@
       <c r="O408" s="6" t="s">
         <v>3028</v>
       </c>
-      <c r="P408" s="13" t="s">
+      <c r="P408" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q408" s="14" t="s">
+      <c r="Q408" s="11" t="s">
         <v>3002</v>
       </c>
       <c r="R408" s="6"/>
@@ -28699,8 +28695,8 @@
       <c r="O409" s="6" t="s">
         <v>3031</v>
       </c>
-      <c r="P409" s="13"/>
-      <c r="Q409" s="13"/>
+      <c r="P409" s="6"/>
+      <c r="Q409" s="6"/>
       <c r="R409" s="6"/>
       <c r="S409" s="6"/>
       <c r="T409" s="6"/>
@@ -28774,10 +28770,10 @@
       <c r="O410" s="6" t="s">
         <v>3039</v>
       </c>
-      <c r="P410" s="13" t="s">
+      <c r="P410" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q410" s="13"/>
+      <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
       <c r="S410" s="6"/>
       <c r="T410" s="6"/>
@@ -28851,10 +28847,10 @@
       <c r="O411" s="6" t="s">
         <v>3048</v>
       </c>
-      <c r="P411" s="13" t="s">
+      <c r="P411" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q411" s="13" t="s">
+      <c r="Q411" s="6" t="s">
         <v>3075</v>
       </c>
       <c r="R411" s="6"/>
@@ -28930,10 +28926,10 @@
       <c r="O412" s="6" t="s">
         <v>3049</v>
       </c>
-      <c r="P412" s="13" t="s">
+      <c r="P412" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q412" s="13" t="s">
+      <c r="Q412" s="6" t="s">
         <v>3074</v>
       </c>
       <c r="R412" s="6"/>
@@ -29009,10 +29005,10 @@
       <c r="O413" s="6" t="s">
         <v>3054</v>
       </c>
-      <c r="P413" s="13" t="s">
+      <c r="P413" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q413" s="13" t="s">
+      <c r="Q413" s="6" t="s">
         <v>3000</v>
       </c>
       <c r="R413" s="6"/>
@@ -29088,10 +29084,10 @@
       <c r="O414" s="6" t="s">
         <v>3059</v>
       </c>
-      <c r="P414" s="13" t="s">
+      <c r="P414" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q414" s="13" t="s">
+      <c r="Q414" s="6" t="s">
         <v>3076</v>
       </c>
       <c r="R414" s="6"/>
@@ -29167,10 +29163,10 @@
       <c r="O415" s="6" t="s">
         <v>3064</v>
       </c>
-      <c r="P415" s="13" t="s">
+      <c r="P415" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q415" s="13" t="s">
+      <c r="Q415" s="6" t="s">
         <v>3001</v>
       </c>
       <c r="R415" s="6"/>
@@ -29246,10 +29242,10 @@
       <c r="O416" s="6" t="s">
         <v>3072</v>
       </c>
-      <c r="P416" s="13" t="s">
+      <c r="P416" s="6" t="s">
         <v>3073</v>
       </c>
-      <c r="Q416" s="13" t="s">
+      <c r="Q416" s="6" t="s">
         <v>3077</v>
       </c>
       <c r="R416" s="6"/>
@@ -29303,8 +29299,8 @@
       <c r="M417" s="6"/>
       <c r="N417" s="6"/>
       <c r="O417" s="6"/>
-      <c r="P417" s="13"/>
-      <c r="Q417" s="13"/>
+      <c r="P417" s="6"/>
+      <c r="Q417" s="6"/>
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
       <c r="T417" s="6"/>
@@ -29356,8 +29352,8 @@
       <c r="M418" s="6"/>
       <c r="N418" s="6"/>
       <c r="O418" s="6"/>
-      <c r="P418" s="13"/>
-      <c r="Q418" s="13"/>
+      <c r="P418" s="6"/>
+      <c r="Q418" s="6"/>
       <c r="R418" s="6"/>
       <c r="S418" s="6"/>
       <c r="T418" s="6"/>
@@ -29409,8 +29405,8 @@
       <c r="M419" s="6"/>
       <c r="N419" s="6"/>
       <c r="O419" s="6"/>
-      <c r="P419" s="13"/>
-      <c r="Q419" s="13"/>
+      <c r="P419" s="6"/>
+      <c r="Q419" s="6"/>
       <c r="R419" s="6"/>
       <c r="S419" s="6"/>
       <c r="T419" s="6"/>
@@ -29462,8 +29458,8 @@
       <c r="M420" s="6"/>
       <c r="N420" s="6"/>
       <c r="O420" s="6"/>
-      <c r="P420" s="13"/>
-      <c r="Q420" s="13"/>
+      <c r="P420" s="6"/>
+      <c r="Q420" s="6"/>
       <c r="R420" s="6"/>
       <c r="S420" s="6"/>
       <c r="T420" s="6"/>
@@ -29515,8 +29511,8 @@
       <c r="M421" s="6"/>
       <c r="N421" s="6"/>
       <c r="O421" s="6"/>
-      <c r="P421" s="13"/>
-      <c r="Q421" s="13"/>
+      <c r="P421" s="6"/>
+      <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
       <c r="T421" s="6"/>
@@ -29568,8 +29564,8 @@
       <c r="M422" s="6"/>
       <c r="N422" s="6"/>
       <c r="O422" s="6"/>
-      <c r="P422" s="13"/>
-      <c r="Q422" s="13"/>
+      <c r="P422" s="6"/>
+      <c r="Q422" s="6"/>
       <c r="R422" s="6"/>
       <c r="S422" s="6"/>
       <c r="T422" s="6"/>
@@ -29621,8 +29617,8 @@
       <c r="M423" s="6"/>
       <c r="N423" s="6"/>
       <c r="O423" s="6"/>
-      <c r="P423" s="13"/>
-      <c r="Q423" s="13"/>
+      <c r="P423" s="6"/>
+      <c r="Q423" s="6"/>
       <c r="R423" s="6"/>
       <c r="S423" s="6"/>
       <c r="T423" s="6"/>
@@ -29674,8 +29670,8 @@
       <c r="M424" s="6"/>
       <c r="N424" s="6"/>
       <c r="O424" s="6"/>
-      <c r="P424" s="13"/>
-      <c r="Q424" s="13"/>
+      <c r="P424" s="6"/>
+      <c r="Q424" s="6"/>
       <c r="R424" s="6"/>
       <c r="S424" s="6"/>
       <c r="T424" s="6"/>
@@ -29727,8 +29723,8 @@
       <c r="M425" s="6"/>
       <c r="N425" s="6"/>
       <c r="O425" s="6"/>
-      <c r="P425" s="13"/>
-      <c r="Q425" s="13"/>
+      <c r="P425" s="6"/>
+      <c r="Q425" s="6"/>
       <c r="R425" s="6"/>
       <c r="S425" s="6"/>
       <c r="T425" s="6"/>
@@ -29780,8 +29776,8 @@
       <c r="M426" s="6"/>
       <c r="N426" s="6"/>
       <c r="O426" s="6"/>
-      <c r="P426" s="13"/>
-      <c r="Q426" s="13"/>
+      <c r="P426" s="6"/>
+      <c r="Q426" s="6"/>
       <c r="R426" s="6"/>
       <c r="S426" s="6"/>
       <c r="T426" s="6"/>
@@ -29833,8 +29829,8 @@
       <c r="M427" s="6"/>
       <c r="N427" s="6"/>
       <c r="O427" s="6"/>
-      <c r="P427" s="13"/>
-      <c r="Q427" s="13"/>
+      <c r="P427" s="6"/>
+      <c r="Q427" s="6"/>
       <c r="R427" s="6"/>
       <c r="S427" s="6"/>
       <c r="T427" s="6"/>

--- a/flag/AQB_classification/species_list_10071623_NJMg.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMg.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D22A9D-6E9C-5047-8925-6D65D7D4D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403ED804-39CF-DA42-A66C-E412DA170AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5320" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6200" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="3082">
   <si>
     <t>Download script?</t>
   </si>
@@ -8973,10 +8986,6 @@
   </si>
   <si>
     <t>Ito, Takahashi 2017</t>
-  </si>
-  <si>
-    <t>Mg2+_or_Ca2+_or_Sr2+ (MotA1, GAK41226.1);
-H+ (MotA2, GAK43333.1)</t>
   </si>
   <si>
     <t>powerSource; Ito &amp; Takahashi 2017, Fig. 4</t>
@@ -9259,6 +9268,22 @@
   </si>
   <si>
     <t>formerly Sphingobium barthaii KK22; "Sphingobium fuliginis produces an organophosphate hydrolase (OPH) to degrade organophosphate insecticides and nerve agents. OPH is targeted to the CM of E. coli when it is coexpressed with either ExbD or ExbB ExbD (65). "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerSource "Mg2+_or_Ca2+_or_Sr2+ (MotA1, GAK41226.1);
+H+ (MotA2, GAK43333.1)" </t>
+  </si>
+  <si>
+    <t>bication</t>
+  </si>
+  <si>
+    <t>Contains very close match to ACJ39421.1 PomA2 [Aeromonas piscicola-traced to Aeromonas hydrophila strain AH-3, but genome fails checks], of reference</t>
+  </si>
+  <si>
+    <t>Wilhelms M, Vilches S, Molero R, et al. Two redundant sodium-driven stator motor proteins are involved in Aeromonas hydrophila polar flagellum rotation. Journal of Bacteriology. 2009 Apr;191(7):2206-2217 https://europepmc.org/article/PMC/2655530#data</t>
+  </si>
+  <si>
+    <t>2023-08-05_NJM</t>
   </si>
 </sst>
 </file>
@@ -10163,10 +10188,10 @@
   <dimension ref="A1:AY439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="Z378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K391" sqref="K391"/>
+      <selection pane="bottomRight" activeCell="K426" sqref="K426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19360,7 +19385,7 @@
         <v>1774</v>
       </c>
       <c r="AH241" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="242" spans="2:34" x14ac:dyDescent="0.2">
@@ -22125,7 +22150,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="300" spans="2:34" ht="136" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:34" ht="170" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>1942</v>
       </c>
@@ -22166,10 +22191,10 @@
         <v>2236</v>
       </c>
       <c r="AG300" s="3" t="s">
-        <v>2984</v>
-      </c>
-      <c r="AH300" t="s">
-        <v>1686</v>
+        <v>3078</v>
+      </c>
+      <c r="AH300" s="3" t="s">
+        <v>3077</v>
       </c>
     </row>
     <row r="301" spans="2:34" x14ac:dyDescent="0.2">
@@ -23126,7 +23151,7 @@
         <v>2371</v>
       </c>
       <c r="AG321" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="AH321" t="s">
         <v>1686</v>
@@ -28280,14 +28305,14 @@
         <v>2930</v>
       </c>
       <c r="C404" s="6" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D404" s="6" t="s">
         <v>2991</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>2992</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="G404" s="6"/>
       <c r="H404" s="6"/>
@@ -28298,19 +28323,19 @@
         <v>258</v>
       </c>
       <c r="K404" s="6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="L404" s="6" t="s">
         <v>2989</v>
       </c>
-      <c r="L404" s="6" t="s">
-        <v>2990</v>
-      </c>
       <c r="M404" s="6" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N404" s="6" t="s">
         <v>732</v>
       </c>
       <c r="O404" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
@@ -28355,14 +28380,14 @@
         <v>2930</v>
       </c>
       <c r="C405" s="6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D405" s="6" t="s">
         <v>2994</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>2995</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="G405" s="6"/>
       <c r="H405" s="6"/>
@@ -28382,14 +28407,14 @@
         <v>1769</v>
       </c>
       <c r="N405" s="6" t="s">
+        <v>2996</v>
+      </c>
+      <c r="O405" s="6" t="s">
         <v>2997</v>
-      </c>
-      <c r="O405" s="6" t="s">
-        <v>2998</v>
       </c>
       <c r="P405" s="6"/>
       <c r="Q405" s="6" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="R405" s="6"/>
       <c r="S405" s="6"/>
@@ -28432,39 +28457,39 @@
         <v>2930</v>
       </c>
       <c r="C406" s="6" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D406" s="6" t="s">
         <v>3007</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>3008</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
       <c r="I406" s="8" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J406" s="6" t="s">
         <v>3009</v>
       </c>
-      <c r="J406" s="6" t="s">
+      <c r="K406" s="6" t="s">
         <v>3010</v>
-      </c>
-      <c r="K406" s="6" t="s">
-        <v>3011</v>
       </c>
       <c r="L406" s="6"/>
       <c r="M406" s="6" t="s">
+        <v>3002</v>
+      </c>
+      <c r="N406" s="6" t="s">
         <v>3003</v>
       </c>
-      <c r="N406" s="6" t="s">
-        <v>3004</v>
-      </c>
       <c r="O406" s="6" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="P406" s="6"/>
       <c r="Q406" s="6" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="R406" s="6"/>
       <c r="S406" s="6"/>
@@ -28507,14 +28532,14 @@
         <v>2930</v>
       </c>
       <c r="C407" s="6" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D407" s="6" t="s">
         <v>3018</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>3019</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
@@ -28525,23 +28550,23 @@
         <v>85</v>
       </c>
       <c r="K407" s="6" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L407" s="6" t="s">
         <v>3016</v>
       </c>
-      <c r="L407" s="6" t="s">
-        <v>3017</v>
-      </c>
       <c r="M407" s="6" t="s">
+        <v>3012</v>
+      </c>
+      <c r="N407" s="6" t="s">
         <v>3013</v>
       </c>
-      <c r="N407" s="6" t="s">
+      <c r="O407" s="6" t="s">
         <v>3014</v>
-      </c>
-      <c r="O407" s="6" t="s">
-        <v>3015</v>
       </c>
       <c r="P407" s="6"/>
       <c r="Q407" s="6" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="R407" s="6"/>
       <c r="S407" s="6"/>
@@ -28584,14 +28609,14 @@
         <v>2930</v>
       </c>
       <c r="C408" s="6" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D408" s="6" t="s">
         <v>3023</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>3024</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
@@ -28599,28 +28624,28 @@
         <v>813</v>
       </c>
       <c r="J408" s="6" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="K408" s="6" t="s">
         <v>880</v>
       </c>
       <c r="L408" s="6" t="s">
+        <v>3025</v>
+      </c>
+      <c r="M408" s="6" t="s">
         <v>3026</v>
-      </c>
-      <c r="M408" s="6" t="s">
-        <v>3027</v>
       </c>
       <c r="N408" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O408" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="P408" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q408" s="11" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="R408" s="6"/>
       <c r="S408" s="6"/>
@@ -28663,14 +28688,14 @@
         <v>2930</v>
       </c>
       <c r="C409" s="6" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D409" s="6" t="s">
         <v>3032</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>3033</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="G409" s="6"/>
       <c r="H409" s="6"/>
@@ -28678,22 +28703,22 @@
         <v>813</v>
       </c>
       <c r="J409" s="6" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="K409" s="6" t="s">
+        <v>3034</v>
+      </c>
+      <c r="L409" s="6" t="s">
         <v>3035</v>
       </c>
-      <c r="L409" s="6" t="s">
-        <v>3036</v>
-      </c>
       <c r="M409" s="6" t="s">
+        <v>3028</v>
+      </c>
+      <c r="N409" s="6" t="s">
         <v>3029</v>
       </c>
-      <c r="N409" s="6" t="s">
+      <c r="O409" s="6" t="s">
         <v>3030</v>
-      </c>
-      <c r="O409" s="6" t="s">
-        <v>3031</v>
       </c>
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
@@ -28738,14 +28763,14 @@
         <v>2930</v>
       </c>
       <c r="C410" s="6" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D410" s="6" t="s">
         <v>3041</v>
-      </c>
-      <c r="D410" s="6" t="s">
-        <v>3042</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="G410" s="6"/>
       <c r="H410" s="6"/>
@@ -28753,25 +28778,25 @@
         <v>813</v>
       </c>
       <c r="J410" s="6" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="K410" s="6" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="N410" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O410" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="P410" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
@@ -28815,14 +28840,14 @@
         <v>2930</v>
       </c>
       <c r="C411" s="6" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D411" s="6" t="s">
         <v>3043</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>3044</v>
       </c>
       <c r="E411" s="6"/>
       <c r="F411" s="6" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
@@ -28836,22 +28861,22 @@
         <v>2148</v>
       </c>
       <c r="L411" s="6" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M411" s="6" t="s">
         <v>3046</v>
-      </c>
-      <c r="M411" s="6" t="s">
-        <v>3047</v>
       </c>
       <c r="N411" s="6" t="s">
         <v>1181</v>
       </c>
       <c r="O411" s="6" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="P411" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q411" s="6" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="R411" s="6"/>
       <c r="S411" s="6"/>
@@ -28894,14 +28919,14 @@
         <v>2930</v>
       </c>
       <c r="C412" s="6" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D412" s="6" t="s">
         <v>3050</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>3051</v>
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="6" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
@@ -28924,13 +28949,13 @@
         <v>2353</v>
       </c>
       <c r="O412" s="6" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P412" s="6" t="s">
+        <v>3072</v>
+      </c>
+      <c r="Q412" s="6" t="s">
         <v>3073</v>
-      </c>
-      <c r="Q412" s="6" t="s">
-        <v>3074</v>
       </c>
       <c r="R412" s="6"/>
       <c r="S412" s="6"/>
@@ -28973,14 +28998,14 @@
         <v>2930</v>
       </c>
       <c r="C413" s="6" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D413" s="6" t="s">
         <v>3056</v>
-      </c>
-      <c r="D413" s="6" t="s">
-        <v>3057</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
@@ -28997,19 +29022,19 @@
         <v>1301</v>
       </c>
       <c r="M413" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="N413" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O413" s="6" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="P413" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q413" s="6" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="R413" s="6"/>
       <c r="S413" s="6"/>
@@ -29052,14 +29077,14 @@
         <v>2930</v>
       </c>
       <c r="C414" s="6" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D414" s="6" t="s">
         <v>3060</v>
-      </c>
-      <c r="D414" s="6" t="s">
-        <v>3061</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
@@ -29079,16 +29104,16 @@
         <v>148</v>
       </c>
       <c r="N414" s="6" t="s">
+        <v>3057</v>
+      </c>
+      <c r="O414" s="6" t="s">
         <v>3058</v>
       </c>
-      <c r="O414" s="6" t="s">
-        <v>3059</v>
-      </c>
       <c r="P414" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q414" s="6" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="R414" s="6"/>
       <c r="S414" s="6"/>
@@ -29131,14 +29156,14 @@
         <v>2930</v>
       </c>
       <c r="C415" s="6" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D415" s="6" t="s">
         <v>3065</v>
-      </c>
-      <c r="D415" s="6" t="s">
-        <v>3066</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
@@ -29158,16 +29183,16 @@
         <v>148</v>
       </c>
       <c r="N415" s="6" t="s">
+        <v>3062</v>
+      </c>
+      <c r="O415" s="6" t="s">
         <v>3063</v>
       </c>
-      <c r="O415" s="6" t="s">
-        <v>3064</v>
-      </c>
       <c r="P415" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q415" s="6" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="R415" s="6"/>
       <c r="S415" s="6"/>
@@ -29210,14 +29235,14 @@
         <v>2930</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
@@ -29234,19 +29259,19 @@
         <v>1301</v>
       </c>
       <c r="M416" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="N416" s="6" t="s">
+        <v>3070</v>
+      </c>
+      <c r="O416" s="6" t="s">
         <v>3071</v>
       </c>
-      <c r="O416" s="6" t="s">
+      <c r="P416" s="6" t="s">
         <v>3072</v>
       </c>
-      <c r="P416" s="6" t="s">
-        <v>3073</v>
-      </c>
       <c r="Q416" s="6" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="R416" s="6"/>
       <c r="S416" s="6"/>
@@ -29285,22 +29310,48 @@
     </row>
     <row r="417" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
+      <c r="B417" s="6" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>2934</v>
+      </c>
       <c r="E417" s="6"/>
-      <c r="F417" s="6"/>
+      <c r="F417" s="6" t="s">
+        <v>2935</v>
+      </c>
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
-      <c r="I417" s="8"/>
-      <c r="J417" s="6"/>
-      <c r="K417" s="6"/>
-      <c r="L417" s="6"/>
-      <c r="M417" s="6"/>
-      <c r="N417" s="6"/>
-      <c r="O417" s="6"/>
-      <c r="P417" s="6"/>
-      <c r="Q417" s="6"/>
+      <c r="I417" t="s">
+        <v>51</v>
+      </c>
+      <c r="J417" t="s">
+        <v>52</v>
+      </c>
+      <c r="K417" t="s">
+        <v>238</v>
+      </c>
+      <c r="L417" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M417" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N417" s="6" t="s">
+        <v>2936</v>
+      </c>
+      <c r="O417" s="6" t="s">
+        <v>2937</v>
+      </c>
+      <c r="P417" s="6" t="s">
+        <v>3080</v>
+      </c>
+      <c r="Q417" s="6" t="s">
+        <v>3079</v>
+      </c>
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
       <c r="T417" s="6"/>

--- a/flag/AQB_classification/species_list_10071623_NJMg.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMg.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403ED804-39CF-DA42-A66C-E412DA170AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591F5F9-807D-0043-A7D8-AF76DC6648E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10300" yWindow="760" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="3082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="3093">
   <si>
     <t>Download script?</t>
   </si>
@@ -8989,9 +8976,6 @@
   </si>
   <si>
     <t>powerSource; Ito &amp; Takahashi 2017, Fig. 4</t>
-  </si>
-  <si>
-    <t>Na+ (NP_717146.1); H+ (AAN57256.1); motors can interchange; Paulick et al 2015)</t>
   </si>
   <si>
     <t>Epulopiscium</t>
@@ -9284,6 +9268,42 @@
   </si>
   <si>
     <t>2023-08-05_NJM</t>
+  </si>
+  <si>
+    <t>powerSource; Na+ (NP_717146.1); H+ (AAN57256.1); motors can interchange; Paulick et al 2015)</t>
+  </si>
+  <si>
+    <t>Na-H_interchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xanthomonas campestris pv. campestris JBL007 </t>
+  </si>
+  <si>
+    <t>Steffens et al. (2022). Two Flagellar mutants of Xanthomonas campestris are characterized by enhanced xanthan production and higher xanthan viscosity. Journal of Biotechnology, 347, 9-17. https://doi.org/10.1016/j.jbiotec.2022.02.002</t>
+  </si>
+  <si>
+    <t>Single polar flagellum (allegedly)</t>
+  </si>
+  <si>
+    <t>Streptococcus sp. strain V4051</t>
+  </si>
+  <si>
+    <t>H.C. Berg (2003). The rotary motor of bacterial flagella. Annu. Rev. Biochem., 72 19-54, 10.1146/annurev.biochem.72.121801.161737</t>
+  </si>
+  <si>
+    <t>"In a study with Streptococcus sp. strain V4051 it was shown that one complete flagellar rotation costs approximately 1200 protons per revolution (Berg, 2003)."</t>
+  </si>
+  <si>
+    <t>Ensifer meliloti</t>
+  </si>
+  <si>
+    <t>no H+/Na+ data; Takakawa et al. 2015 SciRep Fig. S6</t>
+  </si>
+  <si>
+    <t>formerly Rhizobium meliloti and Sinorhizobium meliloti (deep branch by E coli and Vibrio MotAB)</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes</t>
   </si>
 </sst>
 </file>
@@ -9814,7 +9834,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9829,6 +9849,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10188,10 +10209,10 @@
   <dimension ref="A1:AY439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P385" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K426" sqref="K426"/>
+      <selection pane="bottomRight" activeCell="J403" sqref="J403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22191,10 +22212,10 @@
         <v>2236</v>
       </c>
       <c r="AG300" s="3" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="AH300" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="301" spans="2:34" x14ac:dyDescent="0.2">
@@ -23151,10 +23172,10 @@
         <v>2371</v>
       </c>
       <c r="AG321" t="s">
-        <v>2985</v>
+        <v>3082</v>
       </c>
       <c r="AH321" t="s">
-        <v>1686</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="322" spans="1:34" x14ac:dyDescent="0.2">
@@ -28305,14 +28326,14 @@
         <v>2930</v>
       </c>
       <c r="C404" s="6" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D404" s="6" t="s">
         <v>2990</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>2991</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="G404" s="6"/>
       <c r="H404" s="6"/>
@@ -28323,19 +28344,19 @@
         <v>258</v>
       </c>
       <c r="K404" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="L404" s="6" t="s">
         <v>2988</v>
       </c>
-      <c r="L404" s="6" t="s">
-        <v>2989</v>
-      </c>
       <c r="M404" s="6" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="N404" s="6" t="s">
         <v>732</v>
       </c>
       <c r="O404" s="6" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
@@ -28380,14 +28401,14 @@
         <v>2930</v>
       </c>
       <c r="C405" s="6" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D405" s="6" t="s">
         <v>2993</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>2994</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="G405" s="6"/>
       <c r="H405" s="6"/>
@@ -28407,14 +28428,14 @@
         <v>1769</v>
       </c>
       <c r="N405" s="6" t="s">
+        <v>2995</v>
+      </c>
+      <c r="O405" s="6" t="s">
         <v>2996</v>
-      </c>
-      <c r="O405" s="6" t="s">
-        <v>2997</v>
       </c>
       <c r="P405" s="6"/>
       <c r="Q405" s="6" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="R405" s="6"/>
       <c r="S405" s="6"/>
@@ -28457,39 +28478,39 @@
         <v>2930</v>
       </c>
       <c r="C406" s="6" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D406" s="6" t="s">
         <v>3006</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>3007</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
       <c r="I406" s="8" t="s">
+        <v>3007</v>
+      </c>
+      <c r="J406" s="6" t="s">
         <v>3008</v>
       </c>
-      <c r="J406" s="6" t="s">
+      <c r="K406" s="6" t="s">
         <v>3009</v>
-      </c>
-      <c r="K406" s="6" t="s">
-        <v>3010</v>
       </c>
       <c r="L406" s="6"/>
       <c r="M406" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="N406" s="6" t="s">
         <v>3002</v>
       </c>
-      <c r="N406" s="6" t="s">
-        <v>3003</v>
-      </c>
       <c r="O406" s="6" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="P406" s="6"/>
       <c r="Q406" s="6" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="R406" s="6"/>
       <c r="S406" s="6"/>
@@ -28532,14 +28553,14 @@
         <v>2930</v>
       </c>
       <c r="C407" s="6" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D407" s="6" t="s">
         <v>3017</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>3018</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
@@ -28550,23 +28571,23 @@
         <v>85</v>
       </c>
       <c r="K407" s="6" t="s">
+        <v>3014</v>
+      </c>
+      <c r="L407" s="6" t="s">
         <v>3015</v>
       </c>
-      <c r="L407" s="6" t="s">
-        <v>3016</v>
-      </c>
       <c r="M407" s="6" t="s">
+        <v>3011</v>
+      </c>
+      <c r="N407" s="6" t="s">
         <v>3012</v>
       </c>
-      <c r="N407" s="6" t="s">
+      <c r="O407" s="6" t="s">
         <v>3013</v>
-      </c>
-      <c r="O407" s="6" t="s">
-        <v>3014</v>
       </c>
       <c r="P407" s="6"/>
       <c r="Q407" s="6" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="R407" s="6"/>
       <c r="S407" s="6"/>
@@ -28609,14 +28630,14 @@
         <v>2930</v>
       </c>
       <c r="C408" s="6" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D408" s="6" t="s">
         <v>3022</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>3023</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
@@ -28624,28 +28645,28 @@
         <v>813</v>
       </c>
       <c r="J408" s="6" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="K408" s="6" t="s">
         <v>880</v>
       </c>
       <c r="L408" s="6" t="s">
+        <v>3024</v>
+      </c>
+      <c r="M408" s="6" t="s">
         <v>3025</v>
-      </c>
-      <c r="M408" s="6" t="s">
-        <v>3026</v>
       </c>
       <c r="N408" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O408" s="6" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="P408" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q408" s="11" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="R408" s="6"/>
       <c r="S408" s="6"/>
@@ -28688,14 +28709,14 @@
         <v>2930</v>
       </c>
       <c r="C409" s="6" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D409" s="6" t="s">
         <v>3031</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>3032</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="G409" s="6"/>
       <c r="H409" s="6"/>
@@ -28703,22 +28724,22 @@
         <v>813</v>
       </c>
       <c r="J409" s="6" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="K409" s="6" t="s">
+        <v>3033</v>
+      </c>
+      <c r="L409" s="6" t="s">
         <v>3034</v>
       </c>
-      <c r="L409" s="6" t="s">
-        <v>3035</v>
-      </c>
       <c r="M409" s="6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="N409" s="6" t="s">
         <v>3028</v>
       </c>
-      <c r="N409" s="6" t="s">
+      <c r="O409" s="6" t="s">
         <v>3029</v>
-      </c>
-      <c r="O409" s="6" t="s">
-        <v>3030</v>
       </c>
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
@@ -28763,14 +28784,14 @@
         <v>2930</v>
       </c>
       <c r="C410" s="6" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D410" s="6" t="s">
         <v>3040</v>
-      </c>
-      <c r="D410" s="6" t="s">
-        <v>3041</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="G410" s="6"/>
       <c r="H410" s="6"/>
@@ -28778,25 +28799,25 @@
         <v>813</v>
       </c>
       <c r="J410" s="6" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="K410" s="6" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="N410" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O410" s="6" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="P410" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
@@ -28840,14 +28861,14 @@
         <v>2930</v>
       </c>
       <c r="C411" s="6" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D411" s="6" t="s">
         <v>3042</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>3043</v>
       </c>
       <c r="E411" s="6"/>
       <c r="F411" s="6" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
@@ -28861,22 +28882,22 @@
         <v>2148</v>
       </c>
       <c r="L411" s="6" t="s">
+        <v>3044</v>
+      </c>
+      <c r="M411" s="6" t="s">
         <v>3045</v>
-      </c>
-      <c r="M411" s="6" t="s">
-        <v>3046</v>
       </c>
       <c r="N411" s="6" t="s">
         <v>1181</v>
       </c>
       <c r="O411" s="6" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P411" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q411" s="6" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="R411" s="6"/>
       <c r="S411" s="6"/>
@@ -28919,14 +28940,14 @@
         <v>2930</v>
       </c>
       <c r="C412" s="6" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D412" s="6" t="s">
         <v>3049</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>3050</v>
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="6" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
@@ -28949,13 +28970,13 @@
         <v>2353</v>
       </c>
       <c r="O412" s="6" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="P412" s="6" t="s">
+        <v>3071</v>
+      </c>
+      <c r="Q412" s="6" t="s">
         <v>3072</v>
-      </c>
-      <c r="Q412" s="6" t="s">
-        <v>3073</v>
       </c>
       <c r="R412" s="6"/>
       <c r="S412" s="6"/>
@@ -28998,14 +29019,14 @@
         <v>2930</v>
       </c>
       <c r="C413" s="6" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D413" s="6" t="s">
         <v>3055</v>
-      </c>
-      <c r="D413" s="6" t="s">
-        <v>3056</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
@@ -29022,19 +29043,19 @@
         <v>1301</v>
       </c>
       <c r="M413" s="6" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="N413" s="6" t="s">
         <v>1512</v>
       </c>
       <c r="O413" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="P413" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q413" s="6" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="R413" s="6"/>
       <c r="S413" s="6"/>
@@ -29077,14 +29098,14 @@
         <v>2930</v>
       </c>
       <c r="C414" s="6" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D414" s="6" t="s">
         <v>3059</v>
-      </c>
-      <c r="D414" s="6" t="s">
-        <v>3060</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
@@ -29104,16 +29125,16 @@
         <v>148</v>
       </c>
       <c r="N414" s="6" t="s">
+        <v>3056</v>
+      </c>
+      <c r="O414" s="6" t="s">
         <v>3057</v>
       </c>
-      <c r="O414" s="6" t="s">
-        <v>3058</v>
-      </c>
       <c r="P414" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q414" s="6" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="R414" s="6"/>
       <c r="S414" s="6"/>
@@ -29156,14 +29177,14 @@
         <v>2930</v>
       </c>
       <c r="C415" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D415" s="6" t="s">
         <v>3064</v>
-      </c>
-      <c r="D415" s="6" t="s">
-        <v>3065</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
@@ -29183,16 +29204,16 @@
         <v>148</v>
       </c>
       <c r="N415" s="6" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O415" s="6" t="s">
         <v>3062</v>
       </c>
-      <c r="O415" s="6" t="s">
-        <v>3063</v>
-      </c>
       <c r="P415" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q415" s="6" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="R415" s="6"/>
       <c r="S415" s="6"/>
@@ -29235,14 +29256,14 @@
         <v>2930</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
@@ -29259,19 +29280,19 @@
         <v>1301</v>
       </c>
       <c r="M416" s="6" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="N416" s="6" t="s">
+        <v>3069</v>
+      </c>
+      <c r="O416" s="6" t="s">
         <v>3070</v>
       </c>
-      <c r="O416" s="6" t="s">
+      <c r="P416" s="6" t="s">
         <v>3071</v>
       </c>
-      <c r="P416" s="6" t="s">
-        <v>3072</v>
-      </c>
       <c r="Q416" s="6" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="R416" s="6"/>
       <c r="S416" s="6"/>
@@ -29311,7 +29332,7 @@
     <row r="417" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>2933</v>
@@ -29347,10 +29368,10 @@
         <v>2937</v>
       </c>
       <c r="P417" s="6" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="Q417" s="6" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
@@ -29400,11 +29421,17 @@
       <c r="J418" s="6"/>
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
-      <c r="M418" s="6"/>
+      <c r="M418" s="6" t="s">
+        <v>3083</v>
+      </c>
       <c r="N418" s="6"/>
       <c r="O418" s="6"/>
-      <c r="P418" s="6"/>
-      <c r="Q418" s="6"/>
+      <c r="P418" s="12" t="s">
+        <v>3084</v>
+      </c>
+      <c r="Q418" s="12" t="s">
+        <v>3085</v>
+      </c>
       <c r="R418" s="6"/>
       <c r="S418" s="6"/>
       <c r="T418" s="6"/>
@@ -29453,11 +29480,17 @@
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
-      <c r="M419" s="6"/>
+      <c r="M419" s="6" t="s">
+        <v>3086</v>
+      </c>
       <c r="N419" s="6"/>
       <c r="O419" s="6"/>
-      <c r="P419" s="6"/>
-      <c r="Q419" s="6"/>
+      <c r="P419" s="12" t="s">
+        <v>3087</v>
+      </c>
+      <c r="Q419" s="12" t="s">
+        <v>3088</v>
+      </c>
       <c r="R419" s="6"/>
       <c r="S419" s="6"/>
       <c r="T419" s="6"/>
@@ -29506,11 +29539,17 @@
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
-      <c r="M420" s="6"/>
+      <c r="M420" s="6" t="s">
+        <v>3089</v>
+      </c>
       <c r="N420" s="6"/>
       <c r="O420" s="6"/>
-      <c r="P420" s="6"/>
-      <c r="Q420" s="6"/>
+      <c r="P420" s="12" t="s">
+        <v>3090</v>
+      </c>
+      <c r="Q420" s="12" t="s">
+        <v>3091</v>
+      </c>
       <c r="R420" s="6"/>
       <c r="S420" s="6"/>
       <c r="T420" s="6"/>
@@ -29559,11 +29598,15 @@
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
-      <c r="M421" s="6"/>
+      <c r="M421" s="6" t="s">
+        <v>3092</v>
+      </c>
       <c r="N421" s="6"/>
       <c r="O421" s="6"/>
-      <c r="P421" s="6"/>
-      <c r="Q421" s="6"/>
+      <c r="P421" s="12" t="s">
+        <v>3090</v>
+      </c>
+      <c r="Q421" s="12"/>
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
       <c r="T421" s="6"/>
